--- a/api/python/TaiGerTranscriptAnalyzerJS/database/Chemistry/CMY_Course_database.xlsx
+++ b/api/python/TaiGerTranscriptAnalyzerJS/database/Chemistry/CMY_Course_database.xlsx
@@ -9,14 +9,14 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="0Emzow0pcmNQamyZBn2dzgluBGB/8M8iQHWAO9IRG5w="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="uKQyzadNNZ9fBAJUmgzOfr+13zvtLL3l1ni7uJ5lv+M="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="176">
   <si>
     <t>所有科目</t>
   </si>
@@ -221,131 +221,6 @@
     </r>
   </si>
   <si>
-    <t>化學原理實驗</t>
-  </si>
-  <si>
-    <t>Laboratory in Chemistry</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Microsoft JhengHei"/>
-        <color theme="1"/>
-        <sz val="12.0"/>
-      </rPr>
-      <t>化學原理</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <color theme="1"/>
-        <sz val="12.0"/>
-      </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Microsoft JhengHei"/>
-        <color theme="1"/>
-        <sz val="12.0"/>
-      </rPr>
-      <t>一</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <color theme="1"/>
-        <sz val="12.0"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve"> Principles of Chemistry(1)</t>
-  </si>
-  <si>
-    <t>有機化學</t>
-  </si>
-  <si>
-    <t>Organic Chemistry</t>
-  </si>
-  <si>
-    <t>有機化學實驗</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Laboratory in Organic Chemistry</t>
-  </si>
-  <si>
-    <t>生物化學</t>
-  </si>
-  <si>
-    <t>Biochemistry</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Microsoft JhengHei"/>
-        <color theme="1"/>
-        <sz val="12.0"/>
-      </rPr>
-      <t>物理化學</t>
-    </r>
-  </si>
-  <si>
-    <t>Physical chemistry</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Microsoft JhengHei"/>
-        <color theme="1"/>
-        <sz val="12.0"/>
-      </rPr>
-      <t>分析化學</t>
-    </r>
-  </si>
-  <si>
-    <t>Analytical chemistry</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Microsoft JhengHei"/>
-        <color theme="1"/>
-        <sz val="12.0"/>
-      </rPr>
-      <t>高分子化學</t>
-    </r>
-  </si>
-  <si>
-    <t>Polymer chemistry</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Microsoft JhengHei"/>
-        <color theme="1"/>
-        <sz val="12.0"/>
-      </rPr>
-      <t>無機化學</t>
-    </r>
-  </si>
-  <si>
-    <t>Inorganic chemistry</t>
-  </si>
-  <si>
-    <t>計算機概論</t>
-  </si>
-  <si>
-    <t>Introduction to Computer Science</t>
-  </si>
-  <si>
-    <t>醫學工程導論</t>
-  </si>
-  <si>
-    <t>Introduction to Biomedical Engineering</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <rFont val="Microsoft JhengHei"/>
@@ -443,16 +318,139 @@
     <t>General Physics(II)</t>
   </si>
   <si>
-    <t>生理學</t>
+    <r>
+      <rPr>
+        <rFont val="Microsoft JhengHei"/>
+        <color theme="1"/>
+        <sz val="12.0"/>
+      </rPr>
+      <t>化學原理</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+        <sz val="12.0"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Microsoft JhengHei"/>
+        <color theme="1"/>
+        <sz val="12.0"/>
+      </rPr>
+      <t>一</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+        <sz val="12.0"/>
+      </rPr>
+      <t>)</t>
+    </r>
   </si>
   <si>
-    <t>Physiology</t>
+    <t>Principles of Chemistry(1)</t>
   </si>
   <si>
-    <t>生理學實驗</t>
+    <t>普通化學</t>
   </si>
   <si>
-    <t xml:space="preserve"> Physiology Lab.</t>
+    <t>General Chemistry</t>
+  </si>
+  <si>
+    <t>化學原理實驗</t>
+  </si>
+  <si>
+    <t>Laboratory in Chemistry</t>
+  </si>
+  <si>
+    <t>普通化學實驗</t>
+  </si>
+  <si>
+    <t>General chemistry experiments</t>
+  </si>
+  <si>
+    <t>物理化學</t>
+  </si>
+  <si>
+    <t>Physical Chemistry</t>
+  </si>
+  <si>
+    <t>物理化學實驗</t>
+  </si>
+  <si>
+    <t>Physical and Chemistry Experiments</t>
+  </si>
+  <si>
+    <t>分析化學</t>
+  </si>
+  <si>
+    <t>Analytical chemistry</t>
+  </si>
+  <si>
+    <t>分析化學實驗</t>
+  </si>
+  <si>
+    <t>Analytical Chemistry Experiment</t>
+  </si>
+  <si>
+    <t>有機化學</t>
+  </si>
+  <si>
+    <t>Organic Chemistry</t>
+  </si>
+  <si>
+    <t>有機化學實驗</t>
+  </si>
+  <si>
+    <t>Organic chemistry experiment</t>
+  </si>
+  <si>
+    <t>無機化學</t>
+  </si>
+  <si>
+    <t>Inorganic chemistry</t>
+  </si>
+  <si>
+    <t>無機化學實驗</t>
+  </si>
+  <si>
+    <t>Inorganic Chemistry Experiment</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Microsoft JhengHei"/>
+        <color theme="1"/>
+        <sz val="12.0"/>
+      </rPr>
+      <t>物理化學</t>
+    </r>
+  </si>
+  <si>
+    <t>Physical chemistry</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Microsoft JhengHei"/>
+        <color theme="1"/>
+        <sz val="12.0"/>
+      </rPr>
+      <t>高分子化學</t>
+    </r>
+  </si>
+  <si>
+    <t>Polymer chemistry</t>
+  </si>
+  <si>
+    <t>計算機概論</t>
+  </si>
+  <si>
+    <t>Introduction to Computer Science</t>
   </si>
   <si>
     <t>普通物理學實驗</t>
@@ -479,55 +477,10 @@
     <t>Anatomy Lab.</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <rFont val="Microsoft JhengHei"/>
-        <color theme="1"/>
-        <sz val="12.0"/>
-      </rPr>
-      <t>分子生物學</t>
-    </r>
-  </si>
-  <si>
-    <t>Molecular biology</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Microsoft JhengHei"/>
-        <color theme="1"/>
-        <sz val="12.0"/>
-      </rPr>
-      <t>免疫學</t>
-    </r>
-  </si>
-  <si>
-    <t>Immunology</t>
-  </si>
-  <si>
-    <t>認知神經科學導論</t>
-  </si>
-  <si>
-    <t>Cognitive neuroscienc</t>
-  </si>
-  <si>
     <t>生物動力學</t>
   </si>
   <si>
     <t>Biomechanics</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Microsoft JhengHei"/>
-        <color theme="1"/>
-        <sz val="12.0"/>
-      </rPr>
-      <t>微生物學</t>
-    </r>
-  </si>
-  <si>
-    <t>Microbiology</t>
   </si>
   <si>
     <t>傳輸現象</t>
@@ -542,40 +495,10 @@
     <t>Biostatistics</t>
   </si>
   <si>
-    <t>臨床醫學概論</t>
-  </si>
-  <si>
-    <t>Introduction to Clinical Medicine</t>
-  </si>
-  <si>
-    <t>儀器分析</t>
-  </si>
-  <si>
-    <t>Instrumental Analysis</t>
-  </si>
-  <si>
-    <t>材料科學導論</t>
-  </si>
-  <si>
-    <t>Introduction to Materials Science</t>
-  </si>
-  <si>
-    <t>電路學</t>
-  </si>
-  <si>
-    <t>Electric Circuits</t>
-  </si>
-  <si>
     <t>量測及儀表</t>
   </si>
   <si>
     <t>Measurements and Instrumentation</t>
-  </si>
-  <si>
-    <t>訊號與系統</t>
-  </si>
-  <si>
-    <t>Signals and Systems</t>
   </si>
   <si>
     <r>
@@ -636,42 +559,16 @@
     <t>Independent Study II</t>
   </si>
   <si>
-    <t>電磁學</t>
+    <t>靜力學</t>
   </si>
   <si>
-    <t>Electromagnetics</t>
+    <t>Statics</t>
   </si>
   <si>
-    <t>天文物理</t>
+    <t>動力學</t>
   </si>
   <si>
-    <t>astrophysics</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="MingLiU"/>
-        <color theme="1"/>
-        <sz val="12.0"/>
-      </rPr>
-      <t>熱力學</t>
-    </r>
-  </si>
-  <si>
-    <t>Thermodynamics</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="MingLiU"/>
-        <color theme="1"/>
-        <sz val="12.0"/>
-      </rPr>
-      <t>力學</t>
-    </r>
-  </si>
-  <si>
-    <t>mechanics</t>
+    <t>Dynamics</t>
   </si>
   <si>
     <t>工程力學</t>
@@ -686,36 +583,304 @@
     <t>Mechanics of Materials</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <rFont val="MingLiU"/>
-        <color theme="1"/>
-        <sz val="12.0"/>
-      </rPr>
-      <t>固態物理</t>
-    </r>
+    <t>酵素化學</t>
   </si>
   <si>
-    <t>Solid State Physics</t>
+    <t>Enzyme Chemistry</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <rFont val="MingLiU"/>
-        <color theme="1"/>
-        <sz val="12.0"/>
-      </rPr>
-      <t>近代物理</t>
-    </r>
+    <t>儀器分析</t>
   </si>
   <si>
-    <t>Modern Physics</t>
+    <t>Instrumental Analysis</t>
   </si>
   <si>
-    <t>量子物理</t>
+    <t>光譜分析</t>
   </si>
   <si>
-    <t>Quantum Mechanics</t>
+    <t>Spectral analysis</t>
+  </si>
+  <si>
+    <t>化學動力學</t>
+  </si>
+  <si>
+    <t>Chemical Kinetics</t>
+  </si>
+  <si>
+    <t>量子化學</t>
+  </si>
+  <si>
+    <t>Quantum Chemistry</t>
+  </si>
+  <si>
+    <t>核磁共振光譜學</t>
+  </si>
+  <si>
+    <t>NMR spectroscopy</t>
+  </si>
+  <si>
+    <t>有機光譜學</t>
+  </si>
+  <si>
+    <t>Organic spectroscopy</t>
+  </si>
+  <si>
+    <t>有機反應機構</t>
+  </si>
+  <si>
+    <t>Organic Reaction Mechanism</t>
+  </si>
+  <si>
+    <t>有機反應與合成</t>
+  </si>
+  <si>
+    <t>Organic Reactions and Synthesis</t>
+  </si>
+  <si>
+    <t>藥物化學</t>
+  </si>
+  <si>
+    <t>Medicinal chemistry</t>
+  </si>
+  <si>
+    <t>生物物理化學</t>
+  </si>
+  <si>
+    <t>Biophysical Chemistry</t>
+  </si>
+  <si>
+    <t>生物化學</t>
+  </si>
+  <si>
+    <t>Biochemistry</t>
+  </si>
+  <si>
+    <t>生物化學實驗</t>
+  </si>
+  <si>
+    <t>Biochemistry experiment</t>
+  </si>
+  <si>
+    <t>內分泌與代謝</t>
+  </si>
+  <si>
+    <t>Endocrinology and metabolism</t>
+  </si>
+  <si>
+    <t>結構生化學</t>
+  </si>
+  <si>
+    <t>Structural biochemistry</t>
+  </si>
+  <si>
+    <t>細胞生物學</t>
+  </si>
+  <si>
+    <t>Cell Biology</t>
+  </si>
+  <si>
+    <t>蛋白質化學</t>
+  </si>
+  <si>
+    <t>Protein chemistry</t>
+  </si>
+  <si>
+    <t>蛋白質結構學</t>
+  </si>
+  <si>
+    <t>Protein structure</t>
+  </si>
+  <si>
+    <t>合成生物學</t>
+  </si>
+  <si>
+    <t>Synthetic biology</t>
+  </si>
+  <si>
+    <t>生物技術概論</t>
+  </si>
+  <si>
+    <t>Introduction to Biotechnology</t>
+  </si>
+  <si>
+    <t>生醫分析</t>
+  </si>
+  <si>
+    <t>Biomedical analysis</t>
+  </si>
+  <si>
+    <t>細胞定序</t>
+  </si>
+  <si>
+    <t>Cell sequencing</t>
+  </si>
+  <si>
+    <t>生物物理</t>
+  </si>
+  <si>
+    <t>Biophysics</t>
+  </si>
+  <si>
+    <t>生理學</t>
+  </si>
+  <si>
+    <t>Physiology</t>
+  </si>
+  <si>
+    <t>生理學實驗</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Physiology Lab.</t>
+  </si>
+  <si>
+    <t>再生醫學</t>
+  </si>
+  <si>
+    <t>Regenerative medicine</t>
+  </si>
+  <si>
+    <t>組織工程</t>
+  </si>
+  <si>
+    <t>Tissue Engineering</t>
+  </si>
+  <si>
+    <t>分子生物學</t>
+  </si>
+  <si>
+    <t>Molecular biology</t>
+  </si>
+  <si>
+    <t>癌病學</t>
+  </si>
+  <si>
+    <t>Carcinology</t>
+  </si>
+  <si>
+    <t>遺傳學</t>
+  </si>
+  <si>
+    <t>Genetics</t>
+  </si>
+  <si>
+    <t>基因體學</t>
+  </si>
+  <si>
+    <t>Genomics</t>
+  </si>
+  <si>
+    <t>基因工程</t>
+  </si>
+  <si>
+    <t>Genetic Engineering</t>
+  </si>
+  <si>
+    <t>遺傳工程</t>
+  </si>
+  <si>
+    <t>Genetic engineering</t>
+  </si>
+  <si>
+    <t>微生物學</t>
+  </si>
+  <si>
+    <t>Microbiology</t>
+  </si>
+  <si>
+    <t>免疫學</t>
+  </si>
+  <si>
+    <t>Immunology</t>
+  </si>
+  <si>
+    <t>病毒學</t>
+  </si>
+  <si>
+    <t>Virology</t>
+  </si>
+  <si>
+    <t>熱力學</t>
+  </si>
+  <si>
+    <t>Thermodynamics</t>
+  </si>
+  <si>
+    <t>熱質量傳遞</t>
+  </si>
+  <si>
+    <t>Thermal mass transfer</t>
+  </si>
+  <si>
+    <t>流體力學</t>
+  </si>
+  <si>
+    <t>Fluid mechanics</t>
+  </si>
+  <si>
+    <t>流體力學及操作</t>
+  </si>
+  <si>
+    <t>Fluid Mechanics and Operations</t>
+  </si>
+  <si>
+    <t>質能平衡</t>
+  </si>
+  <si>
+    <t>Mass energy balance</t>
+  </si>
+  <si>
+    <t>單元操作</t>
+  </si>
+  <si>
+    <t>Unit operation</t>
+  </si>
+  <si>
+    <t>單元操作實驗</t>
+  </si>
+  <si>
+    <t>Unit operation experiment</t>
+  </si>
+  <si>
+    <t>生物程序工程</t>
+  </si>
+  <si>
+    <t>Bioprocess engineering</t>
+  </si>
+  <si>
+    <t>生化工程</t>
+  </si>
+  <si>
+    <t>Biochemical engineering</t>
+  </si>
+  <si>
+    <t>程序設計</t>
+  </si>
+  <si>
+    <t>Programming</t>
+  </si>
+  <si>
+    <t>程序控制</t>
+  </si>
+  <si>
+    <t>Program control</t>
+  </si>
+  <si>
+    <t>化學反應工程</t>
+  </si>
+  <si>
+    <t>Chemical Reaction Engineering</t>
+  </si>
+  <si>
+    <t>化學工業程序</t>
+  </si>
+  <si>
+    <t>Chemical Industry Program</t>
+  </si>
+  <si>
+    <t>化學工程實驗</t>
+  </si>
+  <si>
+    <t>Chemical engineering experiments</t>
   </si>
 </sst>
 </file>
@@ -788,11 +953,6 @@
     </font>
     <font>
       <sz val="12.0"/>
-      <color theme="1"/>
-      <name val="&quot;Times New Roman&quot;"/>
-    </font>
-    <font>
-      <sz val="12.0"/>
       <color rgb="FF000000"/>
       <name val="Linux libertine g"/>
     </font>
@@ -802,6 +962,11 @@
       <name val="Times New Roman"/>
     </font>
     <font>
+      <sz val="12.0"/>
+      <color theme="1"/>
+      <name val="DFKai-SB"/>
+    </font>
+    <font>
       <u/>
       <sz val="12.0"/>
       <color theme="1"/>
@@ -809,13 +974,13 @@
     </font>
     <font>
       <sz val="12.0"/>
-      <color theme="1"/>
-      <name val="DFKai-SB"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
     </font>
     <font>
       <sz val="12.0"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
+      <color theme="1"/>
+      <name val="&quot;Times New Roman&quot;"/>
     </font>
     <font>
       <sz val="12.0"/>
@@ -843,13 +1008,35 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border/>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="31">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
@@ -889,20 +1076,35 @@
     <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf borderId="2" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="top" wrapText="0"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf borderId="0" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
@@ -910,23 +1112,20 @@
     <xf borderId="0" fillId="0" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
     <xf borderId="0" fillId="0" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="center"/>
+      <alignment readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
@@ -1378,32 +1577,32 @@
       <c r="Z7" s="2"/>
     </row>
     <row r="8">
-      <c r="A8" s="13" t="s">
+      <c r="A8" s="6" t="s">
         <v>14</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
-      <c r="K8" s="3"/>
-      <c r="L8" s="1"/>
-      <c r="M8" s="1"/>
-      <c r="N8" s="1"/>
-      <c r="O8" s="1"/>
-      <c r="P8" s="1"/>
-      <c r="Q8" s="1"/>
-      <c r="R8" s="1"/>
-      <c r="S8" s="1"/>
-      <c r="T8" s="1"/>
-      <c r="U8" s="1"/>
-      <c r="V8" s="1"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="9"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="9"/>
+      <c r="L8" s="9"/>
+      <c r="M8" s="10"/>
+      <c r="N8" s="9"/>
+      <c r="O8" s="9"/>
+      <c r="P8" s="9"/>
+      <c r="Q8" s="9"/>
+      <c r="R8" s="9"/>
+      <c r="S8" s="9"/>
+      <c r="T8" s="9"/>
+      <c r="U8" s="9"/>
+      <c r="V8" s="3"/>
       <c r="W8" s="2"/>
       <c r="X8" s="2"/>
       <c r="Y8" s="2"/>
@@ -1416,7 +1615,7 @@
       <c r="B9" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="9"/>
+      <c r="C9" s="2"/>
       <c r="D9" s="9"/>
       <c r="E9" s="9"/>
       <c r="F9" s="2"/>
@@ -1435,20 +1634,20 @@
       <c r="S9" s="9"/>
       <c r="T9" s="9"/>
       <c r="U9" s="9"/>
-      <c r="V9" s="9"/>
+      <c r="V9" s="3"/>
       <c r="W9" s="2"/>
       <c r="X9" s="2"/>
       <c r="Y9" s="2"/>
       <c r="Z9" s="2"/>
     </row>
     <row r="10">
-      <c r="A10" s="13" t="s">
+      <c r="A10" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="2"/>
+      <c r="C10" s="9"/>
       <c r="D10" s="9"/>
       <c r="E10" s="9"/>
       <c r="F10" s="2"/>
@@ -1467,20 +1666,20 @@
       <c r="S10" s="9"/>
       <c r="T10" s="9"/>
       <c r="U10" s="9"/>
-      <c r="V10" s="3"/>
+      <c r="V10" s="9"/>
       <c r="W10" s="2"/>
       <c r="X10" s="2"/>
       <c r="Y10" s="2"/>
       <c r="Z10" s="2"/>
     </row>
     <row r="11">
-      <c r="A11" s="13" t="s">
+      <c r="A11" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="2"/>
+      <c r="C11" s="9"/>
       <c r="D11" s="9"/>
       <c r="E11" s="9"/>
       <c r="F11" s="2"/>
@@ -1499,49 +1698,49 @@
       <c r="S11" s="9"/>
       <c r="T11" s="9"/>
       <c r="U11" s="9"/>
-      <c r="V11" s="3"/>
+      <c r="V11" s="9"/>
       <c r="W11" s="2"/>
       <c r="X11" s="2"/>
       <c r="Y11" s="2"/>
       <c r="Z11" s="2"/>
     </row>
     <row r="12">
-      <c r="A12" s="14" t="s">
+      <c r="A12" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="11" t="s">
+      <c r="B12" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
-      <c r="H12" s="9"/>
-      <c r="I12" s="9"/>
-      <c r="J12" s="9"/>
-      <c r="K12" s="9"/>
-      <c r="L12" s="9"/>
-      <c r="M12" s="10"/>
-      <c r="N12" s="9"/>
-      <c r="O12" s="9"/>
-      <c r="P12" s="9"/>
-      <c r="Q12" s="9"/>
-      <c r="R12" s="9"/>
-      <c r="S12" s="9"/>
-      <c r="T12" s="9"/>
-      <c r="U12" s="9"/>
-      <c r="V12" s="9"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="1"/>
+      <c r="N12" s="1"/>
+      <c r="O12" s="1"/>
+      <c r="P12" s="1"/>
+      <c r="Q12" s="1"/>
+      <c r="R12" s="1"/>
+      <c r="S12" s="1"/>
+      <c r="T12" s="1"/>
+      <c r="U12" s="1"/>
+      <c r="V12" s="1"/>
       <c r="W12" s="2"/>
       <c r="X12" s="2"/>
       <c r="Y12" s="2"/>
       <c r="Z12" s="2"/>
     </row>
     <row r="13">
-      <c r="A13" s="8" t="s">
+      <c r="A13" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="B13" s="11" t="s">
+      <c r="B13" s="18" t="s">
         <v>25</v>
       </c>
       <c r="C13" s="9"/>
@@ -1570,10 +1769,10 @@
       <c r="Z13" s="2"/>
     </row>
     <row r="14">
-      <c r="A14" s="8" t="s">
+      <c r="A14" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="B14" s="11" t="s">
+      <c r="B14" s="18" t="s">
         <v>27</v>
       </c>
       <c r="C14" s="9"/>
@@ -1595,17 +1794,17 @@
       <c r="S14" s="9"/>
       <c r="T14" s="9"/>
       <c r="U14" s="9"/>
-      <c r="V14" s="3"/>
+      <c r="V14" s="9"/>
       <c r="W14" s="2"/>
       <c r="X14" s="2"/>
       <c r="Y14" s="2"/>
       <c r="Z14" s="2"/>
     </row>
     <row r="15">
-      <c r="A15" s="8" t="s">
+      <c r="A15" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="B15" s="11" t="s">
+      <c r="B15" s="18" t="s">
         <v>29</v>
       </c>
       <c r="C15" s="9"/>
@@ -1627,17 +1826,17 @@
       <c r="S15" s="9"/>
       <c r="T15" s="9"/>
       <c r="U15" s="9"/>
-      <c r="V15" s="3"/>
+      <c r="V15" s="9"/>
       <c r="W15" s="2"/>
       <c r="X15" s="2"/>
       <c r="Y15" s="2"/>
       <c r="Z15" s="2"/>
     </row>
     <row r="16">
-      <c r="A16" s="8" t="s">
+      <c r="A16" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="B16" s="11" t="s">
+      <c r="B16" s="18" t="s">
         <v>31</v>
       </c>
       <c r="C16" s="9"/>
@@ -1659,20 +1858,20 @@
       <c r="S16" s="9"/>
       <c r="T16" s="9"/>
       <c r="U16" s="9"/>
-      <c r="V16" s="3"/>
+      <c r="V16" s="9"/>
       <c r="W16" s="2"/>
       <c r="X16" s="2"/>
       <c r="Y16" s="2"/>
       <c r="Z16" s="2"/>
     </row>
     <row r="17">
-      <c r="A17" s="13" t="s">
+      <c r="A17" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="B17" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="C17" s="2"/>
+      <c r="C17" s="9"/>
       <c r="D17" s="9"/>
       <c r="E17" s="9"/>
       <c r="F17" s="2"/>
@@ -1691,20 +1890,20 @@
       <c r="S17" s="9"/>
       <c r="T17" s="9"/>
       <c r="U17" s="9"/>
-      <c r="V17" s="3"/>
+      <c r="V17" s="9"/>
       <c r="W17" s="2"/>
       <c r="X17" s="2"/>
       <c r="Y17" s="2"/>
       <c r="Z17" s="2"/>
     </row>
     <row r="18">
-      <c r="A18" s="13" t="s">
+      <c r="A18" s="17" t="s">
         <v>34</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="C18" s="2"/>
+      <c r="C18" s="9"/>
       <c r="D18" s="9"/>
       <c r="E18" s="9"/>
       <c r="F18" s="2"/>
@@ -1723,20 +1922,20 @@
       <c r="S18" s="9"/>
       <c r="T18" s="9"/>
       <c r="U18" s="9"/>
-      <c r="V18" s="3"/>
+      <c r="V18" s="9"/>
       <c r="W18" s="2"/>
       <c r="X18" s="2"/>
       <c r="Y18" s="2"/>
       <c r="Z18" s="2"/>
     </row>
     <row r="19">
-      <c r="A19" s="6" t="s">
+      <c r="A19" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="B19" s="5" t="s">
+      <c r="B19" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="C19" s="2"/>
+      <c r="C19" s="9"/>
       <c r="D19" s="9"/>
       <c r="E19" s="9"/>
       <c r="F19" s="2"/>
@@ -1755,20 +1954,20 @@
       <c r="S19" s="9"/>
       <c r="T19" s="9"/>
       <c r="U19" s="9"/>
-      <c r="V19" s="3"/>
+      <c r="V19" s="9"/>
       <c r="W19" s="2"/>
       <c r="X19" s="2"/>
       <c r="Y19" s="2"/>
       <c r="Z19" s="2"/>
     </row>
     <row r="20">
-      <c r="A20" s="6" t="s">
+      <c r="A20" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="B20" s="5" t="s">
+      <c r="B20" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="C20" s="2"/>
+      <c r="C20" s="9"/>
       <c r="D20" s="9"/>
       <c r="E20" s="9"/>
       <c r="F20" s="2"/>
@@ -1794,10 +1993,10 @@
       <c r="Z20" s="2"/>
     </row>
     <row r="21">
-      <c r="A21" s="15" t="s">
+      <c r="A21" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="B21" s="8" t="s">
+      <c r="B21" s="18" t="s">
         <v>41</v>
       </c>
       <c r="C21" s="9"/>
@@ -1819,17 +2018,17 @@
       <c r="S21" s="9"/>
       <c r="T21" s="9"/>
       <c r="U21" s="9"/>
-      <c r="V21" s="9"/>
+      <c r="V21" s="3"/>
       <c r="W21" s="2"/>
       <c r="X21" s="2"/>
       <c r="Y21" s="2"/>
       <c r="Z21" s="2"/>
     </row>
     <row r="22">
-      <c r="A22" s="15" t="s">
+      <c r="A22" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="B22" s="8" t="s">
+      <c r="B22" s="11" t="s">
         <v>43</v>
       </c>
       <c r="C22" s="9"/>
@@ -1858,13 +2057,13 @@
       <c r="Z22" s="2"/>
     </row>
     <row r="23">
-      <c r="A23" s="13" t="s">
+      <c r="A23" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="B23" s="5" t="s">
+      <c r="B23" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="C23" s="2"/>
+      <c r="C23" s="9"/>
       <c r="D23" s="9"/>
       <c r="E23" s="9"/>
       <c r="F23" s="2"/>
@@ -1890,13 +2089,13 @@
       <c r="Z23" s="2"/>
     </row>
     <row r="24">
-      <c r="A24" s="13" t="s">
+      <c r="A24" s="16" t="s">
         <v>46</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="C24" s="9"/>
+      <c r="C24" s="2"/>
       <c r="D24" s="9"/>
       <c r="E24" s="9"/>
       <c r="F24" s="2"/>
@@ -1915,14 +2114,14 @@
       <c r="S24" s="9"/>
       <c r="T24" s="9"/>
       <c r="U24" s="9"/>
-      <c r="V24" s="9"/>
+      <c r="V24" s="3"/>
       <c r="W24" s="2"/>
       <c r="X24" s="2"/>
       <c r="Y24" s="2"/>
       <c r="Z24" s="2"/>
     </row>
     <row r="25">
-      <c r="A25" s="13" t="s">
+      <c r="A25" s="16" t="s">
         <v>48</v>
       </c>
       <c r="B25" s="5" t="s">
@@ -1954,13 +2153,13 @@
       <c r="Z25" s="2"/>
     </row>
     <row r="26">
-      <c r="A26" s="13" t="s">
+      <c r="A26" s="16" t="s">
         <v>50</v>
       </c>
       <c r="B26" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="C26" s="2"/>
+      <c r="C26" s="9"/>
       <c r="D26" s="9"/>
       <c r="E26" s="9"/>
       <c r="F26" s="2"/>
@@ -1979,206 +2178,206 @@
       <c r="S26" s="9"/>
       <c r="T26" s="9"/>
       <c r="U26" s="9"/>
-      <c r="V26" s="3"/>
+      <c r="V26" s="9"/>
       <c r="W26" s="2"/>
       <c r="X26" s="2"/>
       <c r="Y26" s="2"/>
       <c r="Z26" s="2"/>
     </row>
     <row r="27">
-      <c r="A27" s="5" t="s">
+      <c r="A27" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="B27" s="16" t="s">
+      <c r="B27" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="C27" s="17"/>
-      <c r="D27" s="18"/>
-      <c r="E27" s="18"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="9"/>
+      <c r="E27" s="9"/>
       <c r="F27" s="2"/>
       <c r="G27" s="2"/>
-      <c r="H27" s="18"/>
-      <c r="I27" s="19"/>
-      <c r="J27" s="19"/>
-      <c r="K27" s="19"/>
-      <c r="L27" s="18"/>
-      <c r="M27" s="18"/>
-      <c r="N27" s="18"/>
-      <c r="O27" s="19"/>
-      <c r="P27" s="19"/>
-      <c r="Q27" s="19"/>
-      <c r="R27" s="19"/>
-      <c r="S27" s="19"/>
-      <c r="T27" s="19"/>
-      <c r="U27" s="19"/>
-      <c r="V27" s="18"/>
+      <c r="H27" s="9"/>
+      <c r="I27" s="9"/>
+      <c r="J27" s="9"/>
+      <c r="K27" s="9"/>
+      <c r="L27" s="9"/>
+      <c r="M27" s="10"/>
+      <c r="N27" s="9"/>
+      <c r="O27" s="9"/>
+      <c r="P27" s="9"/>
+      <c r="Q27" s="9"/>
+      <c r="R27" s="9"/>
+      <c r="S27" s="9"/>
+      <c r="T27" s="9"/>
+      <c r="U27" s="9"/>
+      <c r="V27" s="3"/>
       <c r="W27" s="2"/>
       <c r="X27" s="2"/>
       <c r="Y27" s="2"/>
       <c r="Z27" s="2"/>
     </row>
     <row r="28">
-      <c r="A28" s="5" t="s">
+      <c r="A28" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="B28" s="16" t="s">
+      <c r="B28" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="C28" s="17"/>
-      <c r="D28" s="18"/>
-      <c r="E28" s="18"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="9"/>
       <c r="F28" s="2"/>
       <c r="G28" s="2"/>
-      <c r="H28" s="18"/>
-      <c r="I28" s="19"/>
-      <c r="J28" s="19"/>
-      <c r="K28" s="19"/>
-      <c r="L28" s="18"/>
-      <c r="M28" s="18"/>
-      <c r="N28" s="18"/>
-      <c r="O28" s="18"/>
-      <c r="P28" s="18"/>
-      <c r="Q28" s="18"/>
-      <c r="R28" s="18"/>
-      <c r="S28" s="18"/>
-      <c r="T28" s="18"/>
-      <c r="U28" s="18"/>
-      <c r="V28" s="18"/>
+      <c r="H28" s="9"/>
+      <c r="I28" s="9"/>
+      <c r="J28" s="9"/>
+      <c r="K28" s="9"/>
+      <c r="L28" s="9"/>
+      <c r="M28" s="10"/>
+      <c r="N28" s="9"/>
+      <c r="O28" s="9"/>
+      <c r="P28" s="9"/>
+      <c r="Q28" s="9"/>
+      <c r="R28" s="9"/>
+      <c r="S28" s="9"/>
+      <c r="T28" s="9"/>
+      <c r="U28" s="9"/>
+      <c r="V28" s="3"/>
       <c r="W28" s="2"/>
       <c r="X28" s="2"/>
       <c r="Y28" s="2"/>
       <c r="Z28" s="2"/>
     </row>
     <row r="29">
-      <c r="A29" s="20" t="s">
+      <c r="A29" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="B29" s="16" t="s">
+      <c r="B29" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="C29" s="17"/>
-      <c r="D29" s="18"/>
-      <c r="E29" s="18"/>
+      <c r="C29" s="21"/>
+      <c r="D29" s="22"/>
+      <c r="E29" s="22"/>
       <c r="F29" s="2"/>
       <c r="G29" s="2"/>
-      <c r="H29" s="18"/>
-      <c r="I29" s="18"/>
-      <c r="J29" s="18"/>
-      <c r="K29" s="18"/>
-      <c r="L29" s="18"/>
-      <c r="M29" s="21"/>
-      <c r="N29" s="18"/>
-      <c r="O29" s="18"/>
-      <c r="P29" s="18"/>
-      <c r="Q29" s="18"/>
-      <c r="R29" s="18"/>
-      <c r="S29" s="18"/>
-      <c r="T29" s="18"/>
-      <c r="U29" s="18"/>
-      <c r="V29" s="18"/>
+      <c r="H29" s="22"/>
+      <c r="I29" s="22"/>
+      <c r="J29" s="22"/>
+      <c r="K29" s="22"/>
+      <c r="L29" s="22"/>
+      <c r="M29" s="23"/>
+      <c r="N29" s="22"/>
+      <c r="O29" s="22"/>
+      <c r="P29" s="22"/>
+      <c r="Q29" s="22"/>
+      <c r="R29" s="22"/>
+      <c r="S29" s="22"/>
+      <c r="T29" s="22"/>
+      <c r="U29" s="22"/>
+      <c r="V29" s="24"/>
       <c r="W29" s="2"/>
       <c r="X29" s="2"/>
       <c r="Y29" s="2"/>
       <c r="Z29" s="2"/>
     </row>
     <row r="30">
-      <c r="A30" s="22" t="s">
+      <c r="A30" s="19" t="s">
         <v>58</v>
       </c>
       <c r="B30" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="C30" s="17"/>
-      <c r="D30" s="18"/>
-      <c r="E30" s="18"/>
+      <c r="C30" s="21"/>
+      <c r="D30" s="22"/>
+      <c r="E30" s="22"/>
       <c r="F30" s="2"/>
       <c r="G30" s="2"/>
-      <c r="H30" s="18"/>
-      <c r="I30" s="18"/>
-      <c r="J30" s="18"/>
-      <c r="K30" s="18"/>
-      <c r="L30" s="18"/>
-      <c r="M30" s="21"/>
-      <c r="N30" s="18"/>
-      <c r="O30" s="18"/>
-      <c r="P30" s="18"/>
-      <c r="Q30" s="18"/>
-      <c r="R30" s="18"/>
-      <c r="S30" s="18"/>
-      <c r="T30" s="18"/>
-      <c r="U30" s="18"/>
-      <c r="V30" s="19"/>
+      <c r="H30" s="22"/>
+      <c r="I30" s="22"/>
+      <c r="J30" s="22"/>
+      <c r="K30" s="22"/>
+      <c r="L30" s="22"/>
+      <c r="M30" s="23"/>
+      <c r="N30" s="22"/>
+      <c r="O30" s="22"/>
+      <c r="P30" s="22"/>
+      <c r="Q30" s="22"/>
+      <c r="R30" s="22"/>
+      <c r="S30" s="22"/>
+      <c r="T30" s="22"/>
+      <c r="U30" s="22"/>
+      <c r="V30" s="24"/>
       <c r="W30" s="2"/>
       <c r="X30" s="2"/>
       <c r="Y30" s="2"/>
       <c r="Z30" s="2"/>
     </row>
     <row r="31">
-      <c r="A31" s="5" t="s">
+      <c r="A31" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="B31" s="16" t="s">
+      <c r="B31" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="C31" s="17"/>
-      <c r="D31" s="18"/>
-      <c r="E31" s="18"/>
+      <c r="C31" s="9"/>
+      <c r="D31" s="9"/>
+      <c r="E31" s="9"/>
       <c r="F31" s="2"/>
       <c r="G31" s="2"/>
-      <c r="H31" s="18"/>
-      <c r="I31" s="18"/>
-      <c r="J31" s="18"/>
-      <c r="K31" s="18"/>
-      <c r="L31" s="18"/>
-      <c r="M31" s="21"/>
-      <c r="N31" s="18"/>
-      <c r="O31" s="18"/>
-      <c r="P31" s="18"/>
-      <c r="Q31" s="18"/>
-      <c r="R31" s="18"/>
-      <c r="S31" s="18"/>
-      <c r="T31" s="18"/>
-      <c r="U31" s="18"/>
-      <c r="V31" s="18"/>
+      <c r="H31" s="9"/>
+      <c r="I31" s="9"/>
+      <c r="J31" s="9"/>
+      <c r="K31" s="9"/>
+      <c r="L31" s="9"/>
+      <c r="M31" s="10"/>
+      <c r="N31" s="9"/>
+      <c r="O31" s="9"/>
+      <c r="P31" s="9"/>
+      <c r="Q31" s="9"/>
+      <c r="R31" s="9"/>
+      <c r="S31" s="9"/>
+      <c r="T31" s="9"/>
+      <c r="U31" s="9"/>
+      <c r="V31" s="9"/>
       <c r="W31" s="2"/>
       <c r="X31" s="2"/>
       <c r="Y31" s="2"/>
       <c r="Z31" s="2"/>
     </row>
     <row r="32">
-      <c r="A32" s="22" t="s">
+      <c r="A32" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="B32" s="20" t="s">
+      <c r="B32" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="C32" s="17"/>
-      <c r="D32" s="18"/>
-      <c r="E32" s="18"/>
+      <c r="C32" s="9"/>
+      <c r="D32" s="9"/>
+      <c r="E32" s="9"/>
       <c r="F32" s="2"/>
       <c r="G32" s="2"/>
-      <c r="H32" s="18"/>
-      <c r="I32" s="18"/>
-      <c r="J32" s="18"/>
-      <c r="K32" s="18"/>
-      <c r="L32" s="18"/>
-      <c r="M32" s="21"/>
-      <c r="N32" s="18"/>
-      <c r="O32" s="18"/>
-      <c r="P32" s="18"/>
-      <c r="Q32" s="18"/>
-      <c r="R32" s="18"/>
-      <c r="S32" s="18"/>
-      <c r="T32" s="18"/>
-      <c r="U32" s="18"/>
-      <c r="V32" s="19"/>
+      <c r="H32" s="9"/>
+      <c r="I32" s="9"/>
+      <c r="J32" s="9"/>
+      <c r="K32" s="9"/>
+      <c r="L32" s="9"/>
+      <c r="M32" s="10"/>
+      <c r="N32" s="9"/>
+      <c r="O32" s="9"/>
+      <c r="P32" s="9"/>
+      <c r="Q32" s="9"/>
+      <c r="R32" s="9"/>
+      <c r="S32" s="9"/>
+      <c r="T32" s="9"/>
+      <c r="U32" s="9"/>
+      <c r="V32" s="9"/>
       <c r="W32" s="2"/>
       <c r="X32" s="2"/>
       <c r="Y32" s="2"/>
       <c r="Z32" s="2"/>
     </row>
     <row r="33">
-      <c r="A33" s="7" t="s">
+      <c r="A33" s="25" t="s">
         <v>64</v>
       </c>
       <c r="B33" s="8" t="s">
@@ -2210,7 +2409,7 @@
       <c r="Z33" s="2"/>
     </row>
     <row r="34">
-      <c r="A34" s="7" t="s">
+      <c r="A34" s="26" t="s">
         <v>66</v>
       </c>
       <c r="B34" s="8" t="s">
@@ -2235,20 +2434,20 @@
       <c r="S34" s="9"/>
       <c r="T34" s="9"/>
       <c r="U34" s="9"/>
-      <c r="V34" s="3"/>
+      <c r="V34" s="9"/>
       <c r="W34" s="2"/>
       <c r="X34" s="2"/>
       <c r="Y34" s="2"/>
       <c r="Z34" s="2"/>
     </row>
     <row r="35">
-      <c r="A35" s="23" t="s">
+      <c r="A35" s="27" t="s">
         <v>68</v>
       </c>
-      <c r="B35" s="8" t="s">
+      <c r="B35" s="28" t="s">
         <v>69</v>
       </c>
-      <c r="C35" s="2"/>
+      <c r="C35" s="9"/>
       <c r="D35" s="9"/>
       <c r="E35" s="9"/>
       <c r="F35" s="2"/>
@@ -2267,20 +2466,20 @@
       <c r="S35" s="9"/>
       <c r="T35" s="9"/>
       <c r="U35" s="9"/>
-      <c r="V35" s="9"/>
+      <c r="V35" s="3"/>
       <c r="W35" s="2"/>
       <c r="X35" s="2"/>
       <c r="Y35" s="2"/>
       <c r="Z35" s="2"/>
     </row>
     <row r="36">
-      <c r="A36" s="7" t="s">
+      <c r="A36" s="27" t="s">
         <v>70</v>
       </c>
-      <c r="B36" s="8" t="s">
+      <c r="B36" s="28" t="s">
         <v>71</v>
       </c>
-      <c r="C36" s="2"/>
+      <c r="C36" s="9"/>
       <c r="D36" s="9"/>
       <c r="E36" s="9"/>
       <c r="F36" s="2"/>
@@ -2299,17 +2498,17 @@
       <c r="S36" s="9"/>
       <c r="T36" s="9"/>
       <c r="U36" s="9"/>
-      <c r="V36" s="9"/>
+      <c r="V36" s="3"/>
       <c r="W36" s="2"/>
       <c r="X36" s="2"/>
       <c r="Y36" s="2"/>
       <c r="Z36" s="2"/>
     </row>
     <row r="37">
-      <c r="A37" s="7" t="s">
+      <c r="A37" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="B37" s="8" t="s">
+      <c r="B37" s="5" t="s">
         <v>73</v>
       </c>
       <c r="C37" s="2"/>
@@ -2331,7 +2530,7 @@
       <c r="S37" s="9"/>
       <c r="T37" s="9"/>
       <c r="U37" s="9"/>
-      <c r="V37" s="9"/>
+      <c r="V37" s="3"/>
       <c r="W37" s="2"/>
       <c r="X37" s="2"/>
       <c r="Y37" s="2"/>
@@ -2370,10 +2569,10 @@
       <c r="Z38" s="2"/>
     </row>
     <row r="39">
-      <c r="A39" s="7" t="s">
+      <c r="A39" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="B39" s="8" t="s">
+      <c r="B39" s="18" t="s">
         <v>77</v>
       </c>
       <c r="C39" s="9"/>
@@ -2402,10 +2601,10 @@
       <c r="Z39" s="2"/>
     </row>
     <row r="40">
-      <c r="A40" s="24" t="s">
+      <c r="A40" s="17" t="s">
         <v>78</v>
       </c>
-      <c r="B40" s="8" t="s">
+      <c r="B40" s="18" t="s">
         <v>79</v>
       </c>
       <c r="C40" s="9"/>
@@ -2434,10 +2633,10 @@
       <c r="Z40" s="2"/>
     </row>
     <row r="41">
-      <c r="A41" s="15" t="s">
+      <c r="A41" s="17" t="s">
         <v>80</v>
       </c>
-      <c r="B41" s="8" t="s">
+      <c r="B41" s="18" t="s">
         <v>81</v>
       </c>
       <c r="C41" s="9"/>
@@ -2459,17 +2658,17 @@
       <c r="S41" s="9"/>
       <c r="T41" s="9"/>
       <c r="U41" s="9"/>
-      <c r="V41" s="9"/>
+      <c r="V41" s="3"/>
       <c r="W41" s="2"/>
       <c r="X41" s="2"/>
       <c r="Y41" s="2"/>
       <c r="Z41" s="2"/>
     </row>
     <row r="42">
-      <c r="A42" s="7" t="s">
+      <c r="A42" s="29" t="s">
         <v>82</v>
       </c>
-      <c r="B42" s="8" t="s">
+      <c r="B42" s="18" t="s">
         <v>83</v>
       </c>
       <c r="C42" s="9"/>
@@ -2491,17 +2690,17 @@
       <c r="S42" s="9"/>
       <c r="T42" s="9"/>
       <c r="U42" s="9"/>
-      <c r="V42" s="9"/>
+      <c r="V42" s="3"/>
       <c r="W42" s="2"/>
       <c r="X42" s="2"/>
       <c r="Y42" s="2"/>
       <c r="Z42" s="2"/>
     </row>
     <row r="43">
-      <c r="A43" s="14" t="s">
+      <c r="A43" s="29" t="s">
         <v>84</v>
       </c>
-      <c r="B43" s="11" t="s">
+      <c r="B43" s="18" t="s">
         <v>85</v>
       </c>
       <c r="C43" s="9"/>
@@ -2523,17 +2722,17 @@
       <c r="S43" s="9"/>
       <c r="T43" s="9"/>
       <c r="U43" s="9"/>
-      <c r="V43" s="9"/>
+      <c r="V43" s="3"/>
       <c r="W43" s="2"/>
       <c r="X43" s="2"/>
       <c r="Y43" s="2"/>
       <c r="Z43" s="2"/>
     </row>
     <row r="44">
-      <c r="A44" s="8" t="s">
+      <c r="A44" s="17" t="s">
         <v>86</v>
       </c>
-      <c r="B44" s="11" t="s">
+      <c r="B44" s="18" t="s">
         <v>87</v>
       </c>
       <c r="C44" s="9"/>
@@ -2562,10 +2761,10 @@
       <c r="Z44" s="2"/>
     </row>
     <row r="45">
-      <c r="A45" s="8" t="s">
+      <c r="A45" s="17" t="s">
         <v>88</v>
       </c>
-      <c r="B45" s="11" t="s">
+      <c r="B45" s="18" t="s">
         <v>89</v>
       </c>
       <c r="C45" s="9"/>
@@ -2587,20 +2786,20 @@
       <c r="S45" s="9"/>
       <c r="T45" s="9"/>
       <c r="U45" s="9"/>
-      <c r="V45" s="3"/>
+      <c r="V45" s="9"/>
       <c r="W45" s="2"/>
       <c r="X45" s="2"/>
       <c r="Y45" s="2"/>
       <c r="Z45" s="2"/>
     </row>
     <row r="46">
-      <c r="A46" s="13" t="s">
+      <c r="A46" s="29" t="s">
         <v>90</v>
       </c>
-      <c r="B46" s="5" t="s">
+      <c r="B46" s="18" t="s">
         <v>91</v>
       </c>
-      <c r="C46" s="2"/>
+      <c r="C46" s="9"/>
       <c r="D46" s="9"/>
       <c r="E46" s="9"/>
       <c r="F46" s="2"/>
@@ -2619,17 +2818,17 @@
       <c r="S46" s="9"/>
       <c r="T46" s="9"/>
       <c r="U46" s="9"/>
-      <c r="V46" s="3"/>
+      <c r="V46" s="9"/>
       <c r="W46" s="2"/>
       <c r="X46" s="2"/>
       <c r="Y46" s="2"/>
       <c r="Z46" s="2"/>
     </row>
     <row r="47">
-      <c r="A47" s="7" t="s">
+      <c r="A47" s="17" t="s">
         <v>92</v>
       </c>
-      <c r="B47" s="8" t="s">
+      <c r="B47" s="18" t="s">
         <v>93</v>
       </c>
       <c r="C47" s="9"/>
@@ -2658,10 +2857,10 @@
       <c r="Z47" s="2"/>
     </row>
     <row r="48">
-      <c r="A48" s="8" t="s">
+      <c r="A48" s="17" t="s">
         <v>94</v>
       </c>
-      <c r="B48" s="11" t="s">
+      <c r="B48" s="18" t="s">
         <v>95</v>
       </c>
       <c r="C48" s="9"/>
@@ -2683,79 +2882,83 @@
       <c r="S48" s="9"/>
       <c r="T48" s="9"/>
       <c r="U48" s="9"/>
-      <c r="V48" s="3"/>
+      <c r="V48" s="9"/>
       <c r="W48" s="2"/>
       <c r="X48" s="2"/>
       <c r="Y48" s="2"/>
       <c r="Z48" s="2"/>
     </row>
     <row r="49">
-      <c r="A49" s="5" t="s">
+      <c r="A49" s="29" t="s">
         <v>96</v>
       </c>
-      <c r="B49" s="16" t="s">
+      <c r="B49" s="29" t="s">
         <v>97</v>
       </c>
-      <c r="C49" s="17"/>
-      <c r="D49" s="18"/>
-      <c r="E49" s="18"/>
+      <c r="C49" s="9"/>
+      <c r="D49" s="9"/>
+      <c r="E49" s="9"/>
       <c r="F49" s="2"/>
       <c r="G49" s="2"/>
-      <c r="H49" s="18"/>
-      <c r="I49" s="18"/>
-      <c r="J49" s="18"/>
-      <c r="K49" s="18"/>
-      <c r="L49" s="18"/>
-      <c r="M49" s="21"/>
-      <c r="N49" s="18"/>
-      <c r="O49" s="18"/>
-      <c r="P49" s="18"/>
-      <c r="Q49" s="18"/>
-      <c r="R49" s="18"/>
-      <c r="S49" s="18"/>
-      <c r="T49" s="18"/>
-      <c r="U49" s="18"/>
-      <c r="V49" s="19"/>
+      <c r="H49" s="9"/>
+      <c r="I49" s="9"/>
+      <c r="J49" s="9"/>
+      <c r="K49" s="9"/>
+      <c r="L49" s="9"/>
+      <c r="M49" s="10"/>
+      <c r="N49" s="9"/>
+      <c r="O49" s="9"/>
+      <c r="P49" s="9"/>
+      <c r="Q49" s="9"/>
+      <c r="R49" s="9"/>
+      <c r="S49" s="9"/>
+      <c r="T49" s="9"/>
+      <c r="U49" s="9"/>
+      <c r="V49" s="9"/>
       <c r="W49" s="2"/>
       <c r="X49" s="2"/>
       <c r="Y49" s="2"/>
       <c r="Z49" s="2"/>
     </row>
     <row r="50">
-      <c r="A50" s="25" t="s">
+      <c r="A50" s="17" t="s">
         <v>98</v>
       </c>
-      <c r="B50" s="16" t="s">
+      <c r="B50" s="29" t="s">
         <v>99</v>
       </c>
-      <c r="C50" s="17"/>
-      <c r="D50" s="18"/>
-      <c r="E50" s="18"/>
+      <c r="C50" s="9"/>
+      <c r="D50" s="9"/>
+      <c r="E50" s="9"/>
       <c r="F50" s="2"/>
       <c r="G50" s="2"/>
-      <c r="H50" s="18"/>
-      <c r="I50" s="18"/>
-      <c r="J50" s="18"/>
-      <c r="K50" s="18"/>
-      <c r="L50" s="18"/>
-      <c r="M50" s="21"/>
-      <c r="N50" s="18"/>
-      <c r="O50" s="18"/>
-      <c r="P50" s="18"/>
-      <c r="Q50" s="18"/>
-      <c r="R50" s="18"/>
-      <c r="S50" s="18"/>
-      <c r="T50" s="18"/>
-      <c r="U50" s="18"/>
-      <c r="V50" s="19"/>
+      <c r="H50" s="9"/>
+      <c r="I50" s="9"/>
+      <c r="J50" s="9"/>
+      <c r="K50" s="9"/>
+      <c r="L50" s="9"/>
+      <c r="M50" s="10"/>
+      <c r="N50" s="9"/>
+      <c r="O50" s="9"/>
+      <c r="P50" s="9"/>
+      <c r="Q50" s="9"/>
+      <c r="R50" s="9"/>
+      <c r="S50" s="9"/>
+      <c r="T50" s="9"/>
+      <c r="U50" s="9"/>
+      <c r="V50" s="9"/>
       <c r="W50" s="2"/>
       <c r="X50" s="2"/>
       <c r="Y50" s="2"/>
       <c r="Z50" s="2"/>
     </row>
     <row r="51">
-      <c r="A51" s="2"/>
-      <c r="B51" s="9"/>
+      <c r="A51" s="17" t="s">
+        <v>100</v>
+      </c>
+      <c r="B51" s="18" t="s">
+        <v>101</v>
+      </c>
       <c r="C51" s="9"/>
       <c r="D51" s="9"/>
       <c r="E51" s="9"/>
@@ -2782,8 +2985,12 @@
       <c r="Z51" s="2"/>
     </row>
     <row r="52">
-      <c r="A52" s="2"/>
-      <c r="B52" s="9"/>
+      <c r="A52" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="B52" s="18" t="s">
+        <v>103</v>
+      </c>
       <c r="C52" s="9"/>
       <c r="D52" s="9"/>
       <c r="E52" s="9"/>
@@ -2810,8 +3017,12 @@
       <c r="Z52" s="2"/>
     </row>
     <row r="53">
-      <c r="A53" s="2"/>
-      <c r="B53" s="9"/>
+      <c r="A53" s="17" t="s">
+        <v>104</v>
+      </c>
+      <c r="B53" s="18" t="s">
+        <v>105</v>
+      </c>
       <c r="C53" s="9"/>
       <c r="D53" s="9"/>
       <c r="E53" s="9"/>
@@ -2831,15 +3042,19 @@
       <c r="S53" s="9"/>
       <c r="T53" s="9"/>
       <c r="U53" s="9"/>
-      <c r="V53" s="3"/>
+      <c r="V53" s="9"/>
       <c r="W53" s="2"/>
       <c r="X53" s="2"/>
       <c r="Y53" s="2"/>
       <c r="Z53" s="2"/>
     </row>
     <row r="54">
-      <c r="A54" s="2"/>
-      <c r="B54" s="9"/>
+      <c r="A54" s="17" t="s">
+        <v>106</v>
+      </c>
+      <c r="B54" s="29" t="s">
+        <v>107</v>
+      </c>
       <c r="C54" s="9"/>
       <c r="D54" s="9"/>
       <c r="E54" s="9"/>
@@ -2866,8 +3081,12 @@
       <c r="Z54" s="2"/>
     </row>
     <row r="55">
-      <c r="A55" s="2"/>
-      <c r="B55" s="9"/>
+      <c r="A55" s="17" t="s">
+        <v>108</v>
+      </c>
+      <c r="B55" s="18" t="s">
+        <v>109</v>
+      </c>
       <c r="C55" s="9"/>
       <c r="D55" s="9"/>
       <c r="E55" s="9"/>
@@ -2894,8 +3113,12 @@
       <c r="Z55" s="2"/>
     </row>
     <row r="56">
-      <c r="A56" s="2"/>
-      <c r="B56" s="9"/>
+      <c r="A56" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="B56" s="18" t="s">
+        <v>111</v>
+      </c>
       <c r="C56" s="9"/>
       <c r="D56" s="9"/>
       <c r="E56" s="9"/>
@@ -2922,8 +3145,12 @@
       <c r="Z56" s="2"/>
     </row>
     <row r="57">
-      <c r="A57" s="2"/>
-      <c r="B57" s="9"/>
+      <c r="A57" s="17" t="s">
+        <v>112</v>
+      </c>
+      <c r="B57" s="18" t="s">
+        <v>113</v>
+      </c>
       <c r="C57" s="9"/>
       <c r="D57" s="9"/>
       <c r="E57" s="9"/>
@@ -2943,15 +3170,19 @@
       <c r="S57" s="9"/>
       <c r="T57" s="9"/>
       <c r="U57" s="9"/>
-      <c r="V57" s="3"/>
+      <c r="V57" s="9"/>
       <c r="W57" s="2"/>
       <c r="X57" s="2"/>
       <c r="Y57" s="2"/>
       <c r="Z57" s="2"/>
     </row>
     <row r="58">
-      <c r="A58" s="2"/>
-      <c r="B58" s="9"/>
+      <c r="A58" s="17" t="s">
+        <v>114</v>
+      </c>
+      <c r="B58" s="18" t="s">
+        <v>115</v>
+      </c>
       <c r="C58" s="9"/>
       <c r="D58" s="9"/>
       <c r="E58" s="9"/>
@@ -2971,15 +3202,19 @@
       <c r="S58" s="9"/>
       <c r="T58" s="9"/>
       <c r="U58" s="9"/>
-      <c r="V58" s="3"/>
+      <c r="V58" s="9"/>
       <c r="W58" s="2"/>
       <c r="X58" s="2"/>
       <c r="Y58" s="2"/>
       <c r="Z58" s="2"/>
     </row>
     <row r="59">
-      <c r="A59" s="2"/>
-      <c r="B59" s="9"/>
+      <c r="A59" s="17" t="s">
+        <v>116</v>
+      </c>
+      <c r="B59" s="18" t="s">
+        <v>117</v>
+      </c>
       <c r="C59" s="9"/>
       <c r="D59" s="9"/>
       <c r="E59" s="9"/>
@@ -3006,8 +3241,12 @@
       <c r="Z59" s="2"/>
     </row>
     <row r="60">
-      <c r="A60" s="2"/>
-      <c r="B60" s="9"/>
+      <c r="A60" s="17" t="s">
+        <v>118</v>
+      </c>
+      <c r="B60" s="18" t="s">
+        <v>119</v>
+      </c>
       <c r="C60" s="9"/>
       <c r="D60" s="9"/>
       <c r="E60" s="9"/>
@@ -3034,8 +3273,12 @@
       <c r="Z60" s="2"/>
     </row>
     <row r="61">
-      <c r="A61" s="2"/>
-      <c r="B61" s="9"/>
+      <c r="A61" s="17" t="s">
+        <v>120</v>
+      </c>
+      <c r="B61" s="29" t="s">
+        <v>121</v>
+      </c>
       <c r="C61" s="9"/>
       <c r="D61" s="9"/>
       <c r="E61" s="9"/>
@@ -3062,8 +3305,12 @@
       <c r="Z61" s="2"/>
     </row>
     <row r="62">
-      <c r="A62" s="2"/>
-      <c r="B62" s="9"/>
+      <c r="A62" s="26" t="s">
+        <v>122</v>
+      </c>
+      <c r="B62" s="8" t="s">
+        <v>123</v>
+      </c>
       <c r="C62" s="9"/>
       <c r="D62" s="9"/>
       <c r="E62" s="9"/>
@@ -3090,8 +3337,12 @@
       <c r="Z62" s="2"/>
     </row>
     <row r="63">
-      <c r="A63" s="2"/>
-      <c r="B63" s="9"/>
+      <c r="A63" s="26" t="s">
+        <v>124</v>
+      </c>
+      <c r="B63" s="8" t="s">
+        <v>125</v>
+      </c>
       <c r="C63" s="9"/>
       <c r="D63" s="9"/>
       <c r="E63" s="9"/>
@@ -3118,8 +3369,12 @@
       <c r="Z63" s="2"/>
     </row>
     <row r="64">
-      <c r="A64" s="2"/>
-      <c r="B64" s="9"/>
+      <c r="A64" s="17" t="s">
+        <v>126</v>
+      </c>
+      <c r="B64" s="18" t="s">
+        <v>127</v>
+      </c>
       <c r="C64" s="9"/>
       <c r="D64" s="9"/>
       <c r="E64" s="9"/>
@@ -3139,15 +3394,19 @@
       <c r="S64" s="9"/>
       <c r="T64" s="9"/>
       <c r="U64" s="9"/>
-      <c r="V64" s="9"/>
+      <c r="V64" s="3"/>
       <c r="W64" s="2"/>
       <c r="X64" s="2"/>
       <c r="Y64" s="2"/>
       <c r="Z64" s="2"/>
     </row>
     <row r="65">
-      <c r="A65" s="2"/>
-      <c r="B65" s="9"/>
+      <c r="A65" s="17" t="s">
+        <v>128</v>
+      </c>
+      <c r="B65" s="18" t="s">
+        <v>129</v>
+      </c>
       <c r="C65" s="9"/>
       <c r="D65" s="9"/>
       <c r="E65" s="9"/>
@@ -3167,15 +3426,19 @@
       <c r="S65" s="9"/>
       <c r="T65" s="9"/>
       <c r="U65" s="9"/>
-      <c r="V65" s="9"/>
+      <c r="V65" s="3"/>
       <c r="W65" s="2"/>
       <c r="X65" s="2"/>
       <c r="Y65" s="2"/>
       <c r="Z65" s="2"/>
     </row>
     <row r="66">
-      <c r="A66" s="2"/>
-      <c r="B66" s="9"/>
+      <c r="A66" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="B66" s="18" t="s">
+        <v>131</v>
+      </c>
       <c r="C66" s="9"/>
       <c r="D66" s="9"/>
       <c r="E66" s="9"/>
@@ -3195,15 +3458,19 @@
       <c r="S66" s="9"/>
       <c r="T66" s="9"/>
       <c r="U66" s="9"/>
-      <c r="V66" s="9"/>
+      <c r="V66" s="3"/>
       <c r="W66" s="2"/>
       <c r="X66" s="2"/>
       <c r="Y66" s="2"/>
       <c r="Z66" s="2"/>
     </row>
     <row r="67">
-      <c r="A67" s="2"/>
-      <c r="B67" s="9"/>
+      <c r="A67" s="17" t="s">
+        <v>132</v>
+      </c>
+      <c r="B67" s="29" t="s">
+        <v>133</v>
+      </c>
       <c r="C67" s="9"/>
       <c r="D67" s="9"/>
       <c r="E67" s="9"/>
@@ -3223,15 +3490,19 @@
       <c r="S67" s="9"/>
       <c r="T67" s="9"/>
       <c r="U67" s="9"/>
-      <c r="V67" s="9"/>
+      <c r="V67" s="3"/>
       <c r="W67" s="2"/>
       <c r="X67" s="2"/>
       <c r="Y67" s="2"/>
       <c r="Z67" s="2"/>
     </row>
     <row r="68">
-      <c r="A68" s="2"/>
-      <c r="B68" s="9"/>
+      <c r="A68" s="17" t="s">
+        <v>134</v>
+      </c>
+      <c r="B68" s="29" t="s">
+        <v>135</v>
+      </c>
       <c r="C68" s="9"/>
       <c r="D68" s="9"/>
       <c r="E68" s="9"/>
@@ -3258,8 +3529,12 @@
       <c r="Z68" s="2"/>
     </row>
     <row r="69">
-      <c r="A69" s="2"/>
-      <c r="B69" s="9"/>
+      <c r="A69" s="17" t="s">
+        <v>136</v>
+      </c>
+      <c r="B69" s="29" t="s">
+        <v>137</v>
+      </c>
       <c r="C69" s="9"/>
       <c r="D69" s="9"/>
       <c r="E69" s="9"/>
@@ -3286,8 +3561,12 @@
       <c r="Z69" s="2"/>
     </row>
     <row r="70">
-      <c r="A70" s="2"/>
-      <c r="B70" s="9"/>
+      <c r="A70" s="17" t="s">
+        <v>138</v>
+      </c>
+      <c r="B70" s="18" t="s">
+        <v>139</v>
+      </c>
       <c r="C70" s="9"/>
       <c r="D70" s="9"/>
       <c r="E70" s="9"/>
@@ -3314,8 +3593,12 @@
       <c r="Z70" s="2"/>
     </row>
     <row r="71">
-      <c r="A71" s="2"/>
-      <c r="B71" s="9"/>
+      <c r="A71" s="17" t="s">
+        <v>140</v>
+      </c>
+      <c r="B71" s="18" t="s">
+        <v>141</v>
+      </c>
       <c r="C71" s="9"/>
       <c r="D71" s="9"/>
       <c r="E71" s="9"/>
@@ -3342,8 +3625,12 @@
       <c r="Z71" s="2"/>
     </row>
     <row r="72">
-      <c r="A72" s="2"/>
-      <c r="B72" s="9"/>
+      <c r="A72" s="17" t="s">
+        <v>142</v>
+      </c>
+      <c r="B72" s="29" t="s">
+        <v>143</v>
+      </c>
       <c r="C72" s="9"/>
       <c r="D72" s="9"/>
       <c r="E72" s="9"/>
@@ -3363,15 +3650,19 @@
       <c r="S72" s="9"/>
       <c r="T72" s="9"/>
       <c r="U72" s="9"/>
-      <c r="V72" s="9"/>
+      <c r="V72" s="3"/>
       <c r="W72" s="2"/>
       <c r="X72" s="2"/>
       <c r="Y72" s="2"/>
       <c r="Z72" s="2"/>
     </row>
     <row r="73">
-      <c r="A73" s="2"/>
-      <c r="B73" s="9"/>
+      <c r="A73" s="17" t="s">
+        <v>144</v>
+      </c>
+      <c r="B73" s="29" t="s">
+        <v>145</v>
+      </c>
       <c r="C73" s="9"/>
       <c r="D73" s="9"/>
       <c r="E73" s="9"/>
@@ -3398,8 +3689,12 @@
       <c r="Z73" s="2"/>
     </row>
     <row r="74">
-      <c r="A74" s="2"/>
-      <c r="B74" s="9"/>
+      <c r="A74" s="17" t="s">
+        <v>146</v>
+      </c>
+      <c r="B74" s="29" t="s">
+        <v>147</v>
+      </c>
       <c r="C74" s="9"/>
       <c r="D74" s="9"/>
       <c r="E74" s="9"/>
@@ -3426,8 +3721,12 @@
       <c r="Z74" s="2"/>
     </row>
     <row r="75">
-      <c r="A75" s="2"/>
-      <c r="B75" s="9"/>
+      <c r="A75" s="17" t="s">
+        <v>148</v>
+      </c>
+      <c r="B75" s="18" t="s">
+        <v>149</v>
+      </c>
       <c r="C75" s="9"/>
       <c r="D75" s="9"/>
       <c r="E75" s="9"/>
@@ -3447,15 +3746,19 @@
       <c r="S75" s="9"/>
       <c r="T75" s="9"/>
       <c r="U75" s="9"/>
-      <c r="V75" s="3"/>
+      <c r="V75" s="9"/>
       <c r="W75" s="2"/>
       <c r="X75" s="2"/>
       <c r="Y75" s="2"/>
       <c r="Z75" s="2"/>
     </row>
     <row r="76">
-      <c r="A76" s="2"/>
-      <c r="B76" s="9"/>
+      <c r="A76" s="17" t="s">
+        <v>150</v>
+      </c>
+      <c r="B76" s="18" t="s">
+        <v>151</v>
+      </c>
       <c r="C76" s="9"/>
       <c r="D76" s="9"/>
       <c r="E76" s="9"/>
@@ -3475,15 +3778,19 @@
       <c r="S76" s="9"/>
       <c r="T76" s="9"/>
       <c r="U76" s="9"/>
-      <c r="V76" s="3"/>
+      <c r="V76" s="9"/>
       <c r="W76" s="2"/>
       <c r="X76" s="2"/>
       <c r="Y76" s="2"/>
       <c r="Z76" s="2"/>
     </row>
     <row r="77">
-      <c r="A77" s="2"/>
-      <c r="B77" s="9"/>
+      <c r="A77" s="17" t="s">
+        <v>152</v>
+      </c>
+      <c r="B77" s="18" t="s">
+        <v>153</v>
+      </c>
       <c r="C77" s="9"/>
       <c r="D77" s="9"/>
       <c r="E77" s="9"/>
@@ -3510,8 +3817,12 @@
       <c r="Z77" s="2"/>
     </row>
     <row r="78">
-      <c r="A78" s="2"/>
-      <c r="B78" s="9"/>
+      <c r="A78" s="17" t="s">
+        <v>154</v>
+      </c>
+      <c r="B78" s="18" t="s">
+        <v>155</v>
+      </c>
       <c r="C78" s="9"/>
       <c r="D78" s="9"/>
       <c r="E78" s="9"/>
@@ -3538,8 +3849,12 @@
       <c r="Z78" s="2"/>
     </row>
     <row r="79">
-      <c r="A79" s="2"/>
-      <c r="B79" s="9"/>
+      <c r="A79" s="17" t="s">
+        <v>156</v>
+      </c>
+      <c r="B79" s="18" t="s">
+        <v>157</v>
+      </c>
       <c r="C79" s="9"/>
       <c r="D79" s="9"/>
       <c r="E79" s="9"/>
@@ -3559,15 +3874,19 @@
       <c r="S79" s="9"/>
       <c r="T79" s="9"/>
       <c r="U79" s="9"/>
-      <c r="V79" s="3"/>
+      <c r="V79" s="9"/>
       <c r="W79" s="2"/>
       <c r="X79" s="2"/>
       <c r="Y79" s="2"/>
       <c r="Z79" s="2"/>
     </row>
     <row r="80">
-      <c r="A80" s="2"/>
-      <c r="B80" s="9"/>
+      <c r="A80" s="17" t="s">
+        <v>158</v>
+      </c>
+      <c r="B80" s="18" t="s">
+        <v>159</v>
+      </c>
       <c r="C80" s="9"/>
       <c r="D80" s="9"/>
       <c r="E80" s="9"/>
@@ -3587,15 +3906,19 @@
       <c r="S80" s="9"/>
       <c r="T80" s="9"/>
       <c r="U80" s="9"/>
-      <c r="V80" s="3"/>
+      <c r="V80" s="9"/>
       <c r="W80" s="2"/>
       <c r="X80" s="2"/>
       <c r="Y80" s="2"/>
       <c r="Z80" s="2"/>
     </row>
     <row r="81">
-      <c r="A81" s="2"/>
-      <c r="B81" s="9"/>
+      <c r="A81" s="17" t="s">
+        <v>160</v>
+      </c>
+      <c r="B81" s="18" t="s">
+        <v>161</v>
+      </c>
       <c r="C81" s="9"/>
       <c r="D81" s="9"/>
       <c r="E81" s="9"/>
@@ -3622,8 +3945,12 @@
       <c r="Z81" s="2"/>
     </row>
     <row r="82">
-      <c r="A82" s="2"/>
-      <c r="B82" s="9"/>
+      <c r="A82" s="17" t="s">
+        <v>162</v>
+      </c>
+      <c r="B82" s="18" t="s">
+        <v>163</v>
+      </c>
       <c r="C82" s="9"/>
       <c r="D82" s="9"/>
       <c r="E82" s="9"/>
@@ -3650,8 +3977,12 @@
       <c r="Z82" s="2"/>
     </row>
     <row r="83">
-      <c r="A83" s="2"/>
-      <c r="B83" s="9"/>
+      <c r="A83" s="17" t="s">
+        <v>164</v>
+      </c>
+      <c r="B83" s="18" t="s">
+        <v>165</v>
+      </c>
       <c r="C83" s="9"/>
       <c r="D83" s="9"/>
       <c r="E83" s="9"/>
@@ -3671,15 +4002,19 @@
       <c r="S83" s="9"/>
       <c r="T83" s="9"/>
       <c r="U83" s="9"/>
-      <c r="V83" s="9"/>
+      <c r="V83" s="3"/>
       <c r="W83" s="2"/>
       <c r="X83" s="2"/>
       <c r="Y83" s="2"/>
       <c r="Z83" s="2"/>
     </row>
     <row r="84">
-      <c r="A84" s="2"/>
-      <c r="B84" s="9"/>
+      <c r="A84" s="17" t="s">
+        <v>166</v>
+      </c>
+      <c r="B84" s="18" t="s">
+        <v>167</v>
+      </c>
       <c r="C84" s="9"/>
       <c r="D84" s="9"/>
       <c r="E84" s="9"/>
@@ -3699,15 +4034,19 @@
       <c r="S84" s="9"/>
       <c r="T84" s="9"/>
       <c r="U84" s="9"/>
-      <c r="V84" s="9"/>
+      <c r="V84" s="3"/>
       <c r="W84" s="2"/>
       <c r="X84" s="2"/>
       <c r="Y84" s="2"/>
       <c r="Z84" s="2"/>
     </row>
     <row r="85">
-      <c r="A85" s="2"/>
-      <c r="B85" s="9"/>
+      <c r="A85" s="17" t="s">
+        <v>168</v>
+      </c>
+      <c r="B85" s="18" t="s">
+        <v>169</v>
+      </c>
       <c r="C85" s="9"/>
       <c r="D85" s="9"/>
       <c r="E85" s="9"/>
@@ -3734,8 +4073,12 @@
       <c r="Z85" s="2"/>
     </row>
     <row r="86">
-      <c r="A86" s="2"/>
-      <c r="B86" s="9"/>
+      <c r="A86" s="17" t="s">
+        <v>170</v>
+      </c>
+      <c r="B86" s="18" t="s">
+        <v>171</v>
+      </c>
       <c r="C86" s="9"/>
       <c r="D86" s="9"/>
       <c r="E86" s="9"/>
@@ -3762,8 +4105,12 @@
       <c r="Z86" s="2"/>
     </row>
     <row r="87">
-      <c r="A87" s="2"/>
-      <c r="B87" s="9"/>
+      <c r="A87" s="17" t="s">
+        <v>172</v>
+      </c>
+      <c r="B87" s="18" t="s">
+        <v>173</v>
+      </c>
       <c r="C87" s="9"/>
       <c r="D87" s="9"/>
       <c r="E87" s="9"/>
@@ -3790,8 +4137,12 @@
       <c r="Z87" s="2"/>
     </row>
     <row r="88">
-      <c r="A88" s="2"/>
-      <c r="B88" s="9"/>
+      <c r="A88" s="17" t="s">
+        <v>174</v>
+      </c>
+      <c r="B88" s="18" t="s">
+        <v>175</v>
+      </c>
       <c r="C88" s="9"/>
       <c r="D88" s="9"/>
       <c r="E88" s="9"/>
@@ -3839,7 +4190,7 @@
       <c r="S89" s="9"/>
       <c r="T89" s="9"/>
       <c r="U89" s="9"/>
-      <c r="V89" s="9"/>
+      <c r="V89" s="3"/>
       <c r="W89" s="2"/>
       <c r="X89" s="2"/>
       <c r="Y89" s="2"/>
@@ -3867,7 +4218,7 @@
       <c r="S90" s="9"/>
       <c r="T90" s="9"/>
       <c r="U90" s="9"/>
-      <c r="V90" s="9"/>
+      <c r="V90" s="3"/>
       <c r="W90" s="2"/>
       <c r="X90" s="2"/>
       <c r="Y90" s="2"/>
@@ -4063,7 +4414,7 @@
       <c r="S97" s="9"/>
       <c r="T97" s="9"/>
       <c r="U97" s="9"/>
-      <c r="V97" s="3"/>
+      <c r="V97" s="9"/>
       <c r="W97" s="2"/>
       <c r="X97" s="2"/>
       <c r="Y97" s="2"/>
@@ -4091,7 +4442,7 @@
       <c r="S98" s="9"/>
       <c r="T98" s="9"/>
       <c r="U98" s="9"/>
-      <c r="V98" s="3"/>
+      <c r="V98" s="9"/>
       <c r="W98" s="2"/>
       <c r="X98" s="2"/>
       <c r="Y98" s="2"/>
@@ -4119,7 +4470,7 @@
       <c r="S99" s="9"/>
       <c r="T99" s="9"/>
       <c r="U99" s="9"/>
-      <c r="V99" s="3"/>
+      <c r="V99" s="9"/>
       <c r="W99" s="2"/>
       <c r="X99" s="2"/>
       <c r="Y99" s="2"/>
@@ -4147,7 +4498,7 @@
       <c r="S100" s="9"/>
       <c r="T100" s="9"/>
       <c r="U100" s="9"/>
-      <c r="V100" s="3"/>
+      <c r="V100" s="9"/>
       <c r="W100" s="2"/>
       <c r="X100" s="2"/>
       <c r="Y100" s="2"/>
@@ -4287,7 +4638,7 @@
       <c r="S105" s="9"/>
       <c r="T105" s="9"/>
       <c r="U105" s="9"/>
-      <c r="V105" s="3"/>
+      <c r="V105" s="9"/>
       <c r="W105" s="2"/>
       <c r="X105" s="2"/>
       <c r="Y105" s="2"/>
@@ -4315,7 +4666,7 @@
       <c r="S106" s="9"/>
       <c r="T106" s="9"/>
       <c r="U106" s="9"/>
-      <c r="V106" s="3"/>
+      <c r="V106" s="9"/>
       <c r="W106" s="2"/>
       <c r="X106" s="2"/>
       <c r="Y106" s="2"/>
@@ -4462,7 +4813,7 @@
       <c r="Z111" s="2"/>
     </row>
     <row r="112">
-      <c r="A112" s="2"/>
+      <c r="A112" s="30"/>
       <c r="B112" s="9"/>
       <c r="C112" s="9"/>
       <c r="D112" s="9"/>
@@ -4518,7 +4869,7 @@
       <c r="Z113" s="2"/>
     </row>
     <row r="114">
-      <c r="A114" s="2"/>
+      <c r="A114" s="30"/>
       <c r="B114" s="9"/>
       <c r="C114" s="9"/>
       <c r="D114" s="9"/>
@@ -4658,7 +5009,7 @@
       <c r="Z118" s="2"/>
     </row>
     <row r="119">
-      <c r="A119" s="2"/>
+      <c r="A119" s="30"/>
       <c r="B119" s="9"/>
       <c r="C119" s="9"/>
       <c r="D119" s="9"/>
@@ -4714,7 +5065,7 @@
       <c r="Z120" s="2"/>
     </row>
     <row r="121">
-      <c r="A121" s="26"/>
+      <c r="A121" s="30"/>
       <c r="B121" s="9"/>
       <c r="C121" s="9"/>
       <c r="D121" s="9"/>
@@ -4735,7 +5086,7 @@
       <c r="S121" s="9"/>
       <c r="T121" s="9"/>
       <c r="U121" s="9"/>
-      <c r="V121" s="9"/>
+      <c r="V121" s="3"/>
       <c r="W121" s="2"/>
       <c r="X121" s="2"/>
       <c r="Y121" s="2"/>
@@ -4791,7 +5142,7 @@
       <c r="S123" s="9"/>
       <c r="T123" s="9"/>
       <c r="U123" s="9"/>
-      <c r="V123" s="3"/>
+      <c r="V123" s="9"/>
       <c r="W123" s="2"/>
       <c r="X123" s="2"/>
       <c r="Y123" s="2"/>
@@ -4847,7 +5198,7 @@
       <c r="S125" s="9"/>
       <c r="T125" s="9"/>
       <c r="U125" s="9"/>
-      <c r="V125" s="9"/>
+      <c r="V125" s="3"/>
       <c r="W125" s="2"/>
       <c r="X125" s="2"/>
       <c r="Y125" s="2"/>
@@ -4875,7 +5226,7 @@
       <c r="S126" s="9"/>
       <c r="T126" s="9"/>
       <c r="U126" s="9"/>
-      <c r="V126" s="9"/>
+      <c r="V126" s="3"/>
       <c r="W126" s="2"/>
       <c r="X126" s="2"/>
       <c r="Y126" s="2"/>
@@ -4903,7 +5254,7 @@
       <c r="S127" s="9"/>
       <c r="T127" s="9"/>
       <c r="U127" s="9"/>
-      <c r="V127" s="9"/>
+      <c r="V127" s="3"/>
       <c r="W127" s="2"/>
       <c r="X127" s="2"/>
       <c r="Y127" s="2"/>
@@ -5043,7 +5394,7 @@
       <c r="S132" s="9"/>
       <c r="T132" s="9"/>
       <c r="U132" s="9"/>
-      <c r="V132" s="9"/>
+      <c r="V132" s="3"/>
       <c r="W132" s="2"/>
       <c r="X132" s="2"/>
       <c r="Y132" s="2"/>
@@ -5071,7 +5422,7 @@
       <c r="S133" s="9"/>
       <c r="T133" s="9"/>
       <c r="U133" s="9"/>
-      <c r="V133" s="9"/>
+      <c r="V133" s="3"/>
       <c r="W133" s="2"/>
       <c r="X133" s="2"/>
       <c r="Y133" s="2"/>
@@ -5414,7 +5765,7 @@
       <c r="Z145" s="2"/>
     </row>
     <row r="146">
-      <c r="A146" s="26"/>
+      <c r="A146" s="2"/>
       <c r="B146" s="9"/>
       <c r="C146" s="9"/>
       <c r="D146" s="9"/>
@@ -5470,7 +5821,7 @@
       <c r="Z147" s="2"/>
     </row>
     <row r="148">
-      <c r="A148" s="26"/>
+      <c r="A148" s="2"/>
       <c r="B148" s="9"/>
       <c r="C148" s="9"/>
       <c r="D148" s="9"/>
@@ -5575,7 +5926,7 @@
       <c r="S151" s="9"/>
       <c r="T151" s="9"/>
       <c r="U151" s="9"/>
-      <c r="V151" s="3"/>
+      <c r="V151" s="9"/>
       <c r="W151" s="2"/>
       <c r="X151" s="2"/>
       <c r="Y151" s="2"/>
@@ -5603,14 +5954,14 @@
       <c r="S152" s="9"/>
       <c r="T152" s="9"/>
       <c r="U152" s="9"/>
-      <c r="V152" s="3"/>
+      <c r="V152" s="9"/>
       <c r="W152" s="2"/>
       <c r="X152" s="2"/>
       <c r="Y152" s="2"/>
       <c r="Z152" s="2"/>
     </row>
     <row r="153">
-      <c r="A153" s="26"/>
+      <c r="A153" s="2"/>
       <c r="B153" s="9"/>
       <c r="C153" s="9"/>
       <c r="D153" s="9"/>
@@ -5666,7 +6017,7 @@
       <c r="Z154" s="2"/>
     </row>
     <row r="155">
-      <c r="A155" s="26"/>
+      <c r="A155" s="2"/>
       <c r="B155" s="9"/>
       <c r="C155" s="9"/>
       <c r="D155" s="9"/>
@@ -5687,7 +6038,7 @@
       <c r="S155" s="9"/>
       <c r="T155" s="9"/>
       <c r="U155" s="9"/>
-      <c r="V155" s="3"/>
+      <c r="V155" s="9"/>
       <c r="W155" s="2"/>
       <c r="X155" s="2"/>
       <c r="Y155" s="2"/>
@@ -5771,7 +6122,7 @@
       <c r="S158" s="9"/>
       <c r="T158" s="9"/>
       <c r="U158" s="9"/>
-      <c r="V158" s="3"/>
+      <c r="V158" s="9"/>
       <c r="W158" s="2"/>
       <c r="X158" s="2"/>
       <c r="Y158" s="2"/>
@@ -5799,7 +6150,7 @@
       <c r="S159" s="9"/>
       <c r="T159" s="9"/>
       <c r="U159" s="9"/>
-      <c r="V159" s="3"/>
+      <c r="V159" s="9"/>
       <c r="W159" s="2"/>
       <c r="X159" s="2"/>
       <c r="Y159" s="2"/>
@@ -5939,7 +6290,7 @@
       <c r="S164" s="9"/>
       <c r="T164" s="9"/>
       <c r="U164" s="9"/>
-      <c r="V164" s="9"/>
+      <c r="V164" s="3"/>
       <c r="W164" s="2"/>
       <c r="X164" s="2"/>
       <c r="Y164" s="2"/>
@@ -5995,7 +6346,7 @@
       <c r="S166" s="9"/>
       <c r="T166" s="9"/>
       <c r="U166" s="9"/>
-      <c r="V166" s="3"/>
+      <c r="V166" s="9"/>
       <c r="W166" s="2"/>
       <c r="X166" s="2"/>
       <c r="Y166" s="2"/>
@@ -6023,7 +6374,7 @@
       <c r="S167" s="9"/>
       <c r="T167" s="9"/>
       <c r="U167" s="9"/>
-      <c r="V167" s="3"/>
+      <c r="V167" s="9"/>
       <c r="W167" s="2"/>
       <c r="X167" s="2"/>
       <c r="Y167" s="2"/>
@@ -6667,7 +7018,7 @@
       <c r="S190" s="9"/>
       <c r="T190" s="9"/>
       <c r="U190" s="9"/>
-      <c r="V190" s="9"/>
+      <c r="V190" s="3"/>
       <c r="W190" s="2"/>
       <c r="X190" s="2"/>
       <c r="Y190" s="2"/>
@@ -6695,7 +7046,7 @@
       <c r="S191" s="9"/>
       <c r="T191" s="9"/>
       <c r="U191" s="9"/>
-      <c r="V191" s="9"/>
+      <c r="V191" s="3"/>
       <c r="W191" s="2"/>
       <c r="X191" s="2"/>
       <c r="Y191" s="2"/>
@@ -6723,7 +7074,7 @@
       <c r="S192" s="9"/>
       <c r="T192" s="9"/>
       <c r="U192" s="9"/>
-      <c r="V192" s="9"/>
+      <c r="V192" s="3"/>
       <c r="W192" s="2"/>
       <c r="X192" s="2"/>
       <c r="Y192" s="2"/>
@@ -6751,7 +7102,7 @@
       <c r="S193" s="9"/>
       <c r="T193" s="9"/>
       <c r="U193" s="9"/>
-      <c r="V193" s="9"/>
+      <c r="V193" s="3"/>
       <c r="W193" s="2"/>
       <c r="X193" s="2"/>
       <c r="Y193" s="2"/>
@@ -6807,7 +7158,7 @@
       <c r="S195" s="9"/>
       <c r="T195" s="9"/>
       <c r="U195" s="9"/>
-      <c r="V195" s="3"/>
+      <c r="V195" s="9"/>
       <c r="W195" s="2"/>
       <c r="X195" s="2"/>
       <c r="Y195" s="2"/>
@@ -6891,7 +7242,7 @@
       <c r="S198" s="9"/>
       <c r="T198" s="9"/>
       <c r="U198" s="9"/>
-      <c r="V198" s="3"/>
+      <c r="V198" s="9"/>
       <c r="W198" s="2"/>
       <c r="X198" s="2"/>
       <c r="Y198" s="2"/>
@@ -6919,7 +7270,7 @@
       <c r="S199" s="9"/>
       <c r="T199" s="9"/>
       <c r="U199" s="9"/>
-      <c r="V199" s="9"/>
+      <c r="V199" s="3"/>
       <c r="W199" s="2"/>
       <c r="X199" s="2"/>
       <c r="Y199" s="2"/>
@@ -6947,7 +7298,7 @@
       <c r="S200" s="9"/>
       <c r="T200" s="9"/>
       <c r="U200" s="9"/>
-      <c r="V200" s="9"/>
+      <c r="V200" s="3"/>
       <c r="W200" s="2"/>
       <c r="X200" s="2"/>
       <c r="Y200" s="2"/>
@@ -7031,7 +7382,7 @@
       <c r="S203" s="9"/>
       <c r="T203" s="9"/>
       <c r="U203" s="9"/>
-      <c r="V203" s="9"/>
+      <c r="V203" s="3"/>
       <c r="W203" s="2"/>
       <c r="X203" s="2"/>
       <c r="Y203" s="2"/>
@@ -7059,7 +7410,7 @@
       <c r="S204" s="9"/>
       <c r="T204" s="9"/>
       <c r="U204" s="9"/>
-      <c r="V204" s="9"/>
+      <c r="V204" s="3"/>
       <c r="W204" s="2"/>
       <c r="X204" s="2"/>
       <c r="Y204" s="2"/>
@@ -7263,27 +7614,27 @@
     </row>
     <row r="212">
       <c r="A212" s="2"/>
-      <c r="B212" s="9"/>
-      <c r="C212" s="9"/>
-      <c r="D212" s="9"/>
-      <c r="E212" s="9"/>
+      <c r="B212" s="2"/>
+      <c r="C212" s="2"/>
+      <c r="D212" s="2"/>
+      <c r="E212" s="2"/>
       <c r="F212" s="2"/>
       <c r="G212" s="2"/>
-      <c r="H212" s="9"/>
-      <c r="I212" s="9"/>
-      <c r="J212" s="9"/>
-      <c r="K212" s="9"/>
-      <c r="L212" s="9"/>
-      <c r="M212" s="10"/>
-      <c r="N212" s="9"/>
-      <c r="O212" s="9"/>
-      <c r="P212" s="9"/>
-      <c r="Q212" s="9"/>
-      <c r="R212" s="9"/>
-      <c r="S212" s="9"/>
-      <c r="T212" s="9"/>
-      <c r="U212" s="9"/>
-      <c r="V212" s="9"/>
+      <c r="H212" s="2"/>
+      <c r="I212" s="2"/>
+      <c r="J212" s="2"/>
+      <c r="K212" s="2"/>
+      <c r="L212" s="2"/>
+      <c r="M212" s="2"/>
+      <c r="N212" s="2"/>
+      <c r="O212" s="2"/>
+      <c r="P212" s="2"/>
+      <c r="Q212" s="2"/>
+      <c r="R212" s="2"/>
+      <c r="S212" s="2"/>
+      <c r="T212" s="2"/>
+      <c r="U212" s="2"/>
+      <c r="V212" s="2"/>
       <c r="W212" s="2"/>
       <c r="X212" s="2"/>
       <c r="Y212" s="2"/>
@@ -7291,27 +7642,27 @@
     </row>
     <row r="213">
       <c r="A213" s="2"/>
-      <c r="B213" s="9"/>
-      <c r="C213" s="9"/>
-      <c r="D213" s="9"/>
-      <c r="E213" s="9"/>
+      <c r="B213" s="2"/>
+      <c r="C213" s="2"/>
+      <c r="D213" s="2"/>
+      <c r="E213" s="2"/>
       <c r="F213" s="2"/>
       <c r="G213" s="2"/>
-      <c r="H213" s="9"/>
-      <c r="I213" s="9"/>
-      <c r="J213" s="9"/>
-      <c r="K213" s="9"/>
-      <c r="L213" s="9"/>
-      <c r="M213" s="10"/>
-      <c r="N213" s="9"/>
-      <c r="O213" s="9"/>
-      <c r="P213" s="9"/>
-      <c r="Q213" s="9"/>
-      <c r="R213" s="9"/>
-      <c r="S213" s="9"/>
-      <c r="T213" s="9"/>
-      <c r="U213" s="9"/>
-      <c r="V213" s="9"/>
+      <c r="H213" s="2"/>
+      <c r="I213" s="2"/>
+      <c r="J213" s="2"/>
+      <c r="K213" s="2"/>
+      <c r="L213" s="2"/>
+      <c r="M213" s="2"/>
+      <c r="N213" s="2"/>
+      <c r="O213" s="2"/>
+      <c r="P213" s="2"/>
+      <c r="Q213" s="2"/>
+      <c r="R213" s="2"/>
+      <c r="S213" s="2"/>
+      <c r="T213" s="2"/>
+      <c r="U213" s="2"/>
+      <c r="V213" s="2"/>
       <c r="W213" s="2"/>
       <c r="X213" s="2"/>
       <c r="Y213" s="2"/>
@@ -7319,27 +7670,27 @@
     </row>
     <row r="214">
       <c r="A214" s="2"/>
-      <c r="B214" s="9"/>
-      <c r="C214" s="9"/>
-      <c r="D214" s="9"/>
-      <c r="E214" s="9"/>
+      <c r="B214" s="2"/>
+      <c r="C214" s="2"/>
+      <c r="D214" s="2"/>
+      <c r="E214" s="2"/>
       <c r="F214" s="2"/>
       <c r="G214" s="2"/>
-      <c r="H214" s="9"/>
-      <c r="I214" s="9"/>
-      <c r="J214" s="9"/>
-      <c r="K214" s="9"/>
-      <c r="L214" s="9"/>
-      <c r="M214" s="10"/>
-      <c r="N214" s="9"/>
-      <c r="O214" s="9"/>
-      <c r="P214" s="9"/>
-      <c r="Q214" s="9"/>
-      <c r="R214" s="9"/>
-      <c r="S214" s="9"/>
-      <c r="T214" s="9"/>
-      <c r="U214" s="9"/>
-      <c r="V214" s="9"/>
+      <c r="H214" s="2"/>
+      <c r="I214" s="2"/>
+      <c r="J214" s="2"/>
+      <c r="K214" s="2"/>
+      <c r="L214" s="2"/>
+      <c r="M214" s="2"/>
+      <c r="N214" s="2"/>
+      <c r="O214" s="2"/>
+      <c r="P214" s="2"/>
+      <c r="Q214" s="2"/>
+      <c r="R214" s="2"/>
+      <c r="S214" s="2"/>
+      <c r="T214" s="2"/>
+      <c r="U214" s="2"/>
+      <c r="V214" s="2"/>
       <c r="W214" s="2"/>
       <c r="X214" s="2"/>
       <c r="Y214" s="2"/>
@@ -7347,27 +7698,27 @@
     </row>
     <row r="215">
       <c r="A215" s="2"/>
-      <c r="B215" s="9"/>
-      <c r="C215" s="9"/>
-      <c r="D215" s="9"/>
-      <c r="E215" s="9"/>
+      <c r="B215" s="2"/>
+      <c r="C215" s="2"/>
+      <c r="D215" s="2"/>
+      <c r="E215" s="2"/>
       <c r="F215" s="2"/>
       <c r="G215" s="2"/>
-      <c r="H215" s="9"/>
-      <c r="I215" s="9"/>
-      <c r="J215" s="9"/>
-      <c r="K215" s="9"/>
-      <c r="L215" s="9"/>
-      <c r="M215" s="10"/>
-      <c r="N215" s="9"/>
-      <c r="O215" s="9"/>
-      <c r="P215" s="9"/>
-      <c r="Q215" s="9"/>
-      <c r="R215" s="9"/>
-      <c r="S215" s="9"/>
-      <c r="T215" s="9"/>
-      <c r="U215" s="9"/>
-      <c r="V215" s="9"/>
+      <c r="H215" s="2"/>
+      <c r="I215" s="2"/>
+      <c r="J215" s="2"/>
+      <c r="K215" s="2"/>
+      <c r="L215" s="2"/>
+      <c r="M215" s="2"/>
+      <c r="N215" s="2"/>
+      <c r="O215" s="2"/>
+      <c r="P215" s="2"/>
+      <c r="Q215" s="2"/>
+      <c r="R215" s="2"/>
+      <c r="S215" s="2"/>
+      <c r="T215" s="2"/>
+      <c r="U215" s="2"/>
+      <c r="V215" s="2"/>
       <c r="W215" s="2"/>
       <c r="X215" s="2"/>
       <c r="Y215" s="2"/>
@@ -7375,27 +7726,27 @@
     </row>
     <row r="216">
       <c r="A216" s="2"/>
-      <c r="B216" s="9"/>
-      <c r="C216" s="9"/>
-      <c r="D216" s="9"/>
-      <c r="E216" s="9"/>
+      <c r="B216" s="2"/>
+      <c r="C216" s="2"/>
+      <c r="D216" s="2"/>
+      <c r="E216" s="2"/>
       <c r="F216" s="2"/>
       <c r="G216" s="2"/>
-      <c r="H216" s="9"/>
-      <c r="I216" s="9"/>
-      <c r="J216" s="9"/>
-      <c r="K216" s="9"/>
-      <c r="L216" s="9"/>
-      <c r="M216" s="10"/>
-      <c r="N216" s="9"/>
-      <c r="O216" s="9"/>
-      <c r="P216" s="9"/>
-      <c r="Q216" s="9"/>
-      <c r="R216" s="9"/>
-      <c r="S216" s="9"/>
-      <c r="T216" s="9"/>
-      <c r="U216" s="9"/>
-      <c r="V216" s="9"/>
+      <c r="H216" s="2"/>
+      <c r="I216" s="2"/>
+      <c r="J216" s="2"/>
+      <c r="K216" s="2"/>
+      <c r="L216" s="2"/>
+      <c r="M216" s="2"/>
+      <c r="N216" s="2"/>
+      <c r="O216" s="2"/>
+      <c r="P216" s="2"/>
+      <c r="Q216" s="2"/>
+      <c r="R216" s="2"/>
+      <c r="S216" s="2"/>
+      <c r="T216" s="2"/>
+      <c r="U216" s="2"/>
+      <c r="V216" s="2"/>
       <c r="W216" s="2"/>
       <c r="X216" s="2"/>
       <c r="Y216" s="2"/>
@@ -7403,27 +7754,27 @@
     </row>
     <row r="217">
       <c r="A217" s="2"/>
-      <c r="B217" s="9"/>
-      <c r="C217" s="9"/>
-      <c r="D217" s="9"/>
-      <c r="E217" s="9"/>
+      <c r="B217" s="2"/>
+      <c r="C217" s="2"/>
+      <c r="D217" s="2"/>
+      <c r="E217" s="2"/>
       <c r="F217" s="2"/>
       <c r="G217" s="2"/>
-      <c r="H217" s="9"/>
-      <c r="I217" s="9"/>
-      <c r="J217" s="9"/>
-      <c r="K217" s="9"/>
-      <c r="L217" s="9"/>
-      <c r="M217" s="10"/>
-      <c r="N217" s="9"/>
-      <c r="O217" s="9"/>
-      <c r="P217" s="9"/>
-      <c r="Q217" s="9"/>
-      <c r="R217" s="9"/>
-      <c r="S217" s="9"/>
-      <c r="T217" s="9"/>
-      <c r="U217" s="9"/>
-      <c r="V217" s="9"/>
+      <c r="H217" s="2"/>
+      <c r="I217" s="2"/>
+      <c r="J217" s="2"/>
+      <c r="K217" s="2"/>
+      <c r="L217" s="2"/>
+      <c r="M217" s="2"/>
+      <c r="N217" s="2"/>
+      <c r="O217" s="2"/>
+      <c r="P217" s="2"/>
+      <c r="Q217" s="2"/>
+      <c r="R217" s="2"/>
+      <c r="S217" s="2"/>
+      <c r="T217" s="2"/>
+      <c r="U217" s="2"/>
+      <c r="V217" s="2"/>
       <c r="W217" s="2"/>
       <c r="X217" s="2"/>
       <c r="Y217" s="2"/>
@@ -7431,27 +7782,27 @@
     </row>
     <row r="218">
       <c r="A218" s="2"/>
-      <c r="B218" s="9"/>
-      <c r="C218" s="9"/>
-      <c r="D218" s="9"/>
-      <c r="E218" s="9"/>
+      <c r="B218" s="2"/>
+      <c r="C218" s="2"/>
+      <c r="D218" s="2"/>
+      <c r="E218" s="2"/>
       <c r="F218" s="2"/>
       <c r="G218" s="2"/>
-      <c r="H218" s="9"/>
-      <c r="I218" s="9"/>
-      <c r="J218" s="9"/>
-      <c r="K218" s="9"/>
-      <c r="L218" s="9"/>
-      <c r="M218" s="10"/>
-      <c r="N218" s="9"/>
-      <c r="O218" s="9"/>
-      <c r="P218" s="9"/>
-      <c r="Q218" s="9"/>
-      <c r="R218" s="9"/>
-      <c r="S218" s="9"/>
-      <c r="T218" s="9"/>
-      <c r="U218" s="9"/>
-      <c r="V218" s="9"/>
+      <c r="H218" s="2"/>
+      <c r="I218" s="2"/>
+      <c r="J218" s="2"/>
+      <c r="K218" s="2"/>
+      <c r="L218" s="2"/>
+      <c r="M218" s="2"/>
+      <c r="N218" s="2"/>
+      <c r="O218" s="2"/>
+      <c r="P218" s="2"/>
+      <c r="Q218" s="2"/>
+      <c r="R218" s="2"/>
+      <c r="S218" s="2"/>
+      <c r="T218" s="2"/>
+      <c r="U218" s="2"/>
+      <c r="V218" s="2"/>
       <c r="W218" s="2"/>
       <c r="X218" s="2"/>
       <c r="Y218" s="2"/>
@@ -7459,27 +7810,27 @@
     </row>
     <row r="219">
       <c r="A219" s="2"/>
-      <c r="B219" s="9"/>
-      <c r="C219" s="9"/>
-      <c r="D219" s="9"/>
-      <c r="E219" s="9"/>
+      <c r="B219" s="2"/>
+      <c r="C219" s="2"/>
+      <c r="D219" s="2"/>
+      <c r="E219" s="2"/>
       <c r="F219" s="2"/>
       <c r="G219" s="2"/>
-      <c r="H219" s="9"/>
-      <c r="I219" s="9"/>
-      <c r="J219" s="9"/>
-      <c r="K219" s="9"/>
-      <c r="L219" s="9"/>
-      <c r="M219" s="10"/>
-      <c r="N219" s="9"/>
-      <c r="O219" s="9"/>
-      <c r="P219" s="9"/>
-      <c r="Q219" s="9"/>
-      <c r="R219" s="9"/>
-      <c r="S219" s="9"/>
-      <c r="T219" s="9"/>
-      <c r="U219" s="9"/>
-      <c r="V219" s="9"/>
+      <c r="H219" s="2"/>
+      <c r="I219" s="2"/>
+      <c r="J219" s="2"/>
+      <c r="K219" s="2"/>
+      <c r="L219" s="2"/>
+      <c r="M219" s="2"/>
+      <c r="N219" s="2"/>
+      <c r="O219" s="2"/>
+      <c r="P219" s="2"/>
+      <c r="Q219" s="2"/>
+      <c r="R219" s="2"/>
+      <c r="S219" s="2"/>
+      <c r="T219" s="2"/>
+      <c r="U219" s="2"/>
+      <c r="V219" s="2"/>
       <c r="W219" s="2"/>
       <c r="X219" s="2"/>
       <c r="Y219" s="2"/>
@@ -7487,27 +7838,27 @@
     </row>
     <row r="220">
       <c r="A220" s="2"/>
-      <c r="B220" s="9"/>
-      <c r="C220" s="9"/>
-      <c r="D220" s="9"/>
-      <c r="E220" s="9"/>
+      <c r="B220" s="2"/>
+      <c r="C220" s="2"/>
+      <c r="D220" s="2"/>
+      <c r="E220" s="2"/>
       <c r="F220" s="2"/>
       <c r="G220" s="2"/>
-      <c r="H220" s="9"/>
-      <c r="I220" s="9"/>
-      <c r="J220" s="9"/>
-      <c r="K220" s="9"/>
-      <c r="L220" s="9"/>
-      <c r="M220" s="10"/>
-      <c r="N220" s="9"/>
-      <c r="O220" s="9"/>
-      <c r="P220" s="9"/>
-      <c r="Q220" s="9"/>
-      <c r="R220" s="9"/>
-      <c r="S220" s="9"/>
-      <c r="T220" s="9"/>
-      <c r="U220" s="9"/>
-      <c r="V220" s="9"/>
+      <c r="H220" s="2"/>
+      <c r="I220" s="2"/>
+      <c r="J220" s="2"/>
+      <c r="K220" s="2"/>
+      <c r="L220" s="2"/>
+      <c r="M220" s="2"/>
+      <c r="N220" s="2"/>
+      <c r="O220" s="2"/>
+      <c r="P220" s="2"/>
+      <c r="Q220" s="2"/>
+      <c r="R220" s="2"/>
+      <c r="S220" s="2"/>
+      <c r="T220" s="2"/>
+      <c r="U220" s="2"/>
+      <c r="V220" s="2"/>
       <c r="W220" s="2"/>
       <c r="X220" s="2"/>
       <c r="Y220" s="2"/>
@@ -7515,27 +7866,27 @@
     </row>
     <row r="221">
       <c r="A221" s="2"/>
-      <c r="B221" s="9"/>
-      <c r="C221" s="9"/>
-      <c r="D221" s="9"/>
-      <c r="E221" s="9"/>
+      <c r="B221" s="2"/>
+      <c r="C221" s="2"/>
+      <c r="D221" s="2"/>
+      <c r="E221" s="2"/>
       <c r="F221" s="2"/>
       <c r="G221" s="2"/>
-      <c r="H221" s="9"/>
-      <c r="I221" s="9"/>
-      <c r="J221" s="9"/>
-      <c r="K221" s="9"/>
-      <c r="L221" s="9"/>
-      <c r="M221" s="10"/>
-      <c r="N221" s="9"/>
-      <c r="O221" s="9"/>
-      <c r="P221" s="9"/>
-      <c r="Q221" s="9"/>
-      <c r="R221" s="9"/>
-      <c r="S221" s="9"/>
-      <c r="T221" s="9"/>
-      <c r="U221" s="9"/>
-      <c r="V221" s="9"/>
+      <c r="H221" s="2"/>
+      <c r="I221" s="2"/>
+      <c r="J221" s="2"/>
+      <c r="K221" s="2"/>
+      <c r="L221" s="2"/>
+      <c r="M221" s="2"/>
+      <c r="N221" s="2"/>
+      <c r="O221" s="2"/>
+      <c r="P221" s="2"/>
+      <c r="Q221" s="2"/>
+      <c r="R221" s="2"/>
+      <c r="S221" s="2"/>
+      <c r="T221" s="2"/>
+      <c r="U221" s="2"/>
+      <c r="V221" s="2"/>
       <c r="W221" s="2"/>
       <c r="X221" s="2"/>
       <c r="Y221" s="2"/>
@@ -7543,27 +7894,27 @@
     </row>
     <row r="222">
       <c r="A222" s="2"/>
-      <c r="B222" s="9"/>
-      <c r="C222" s="9"/>
-      <c r="D222" s="9"/>
-      <c r="E222" s="9"/>
+      <c r="B222" s="2"/>
+      <c r="C222" s="2"/>
+      <c r="D222" s="2"/>
+      <c r="E222" s="2"/>
       <c r="F222" s="2"/>
       <c r="G222" s="2"/>
-      <c r="H222" s="9"/>
-      <c r="I222" s="9"/>
-      <c r="J222" s="9"/>
-      <c r="K222" s="9"/>
-      <c r="L222" s="9"/>
-      <c r="M222" s="10"/>
-      <c r="N222" s="9"/>
-      <c r="O222" s="9"/>
-      <c r="P222" s="9"/>
-      <c r="Q222" s="9"/>
-      <c r="R222" s="9"/>
-      <c r="S222" s="9"/>
-      <c r="T222" s="9"/>
-      <c r="U222" s="9"/>
-      <c r="V222" s="9"/>
+      <c r="H222" s="2"/>
+      <c r="I222" s="2"/>
+      <c r="J222" s="2"/>
+      <c r="K222" s="2"/>
+      <c r="L222" s="2"/>
+      <c r="M222" s="2"/>
+      <c r="N222" s="2"/>
+      <c r="O222" s="2"/>
+      <c r="P222" s="2"/>
+      <c r="Q222" s="2"/>
+      <c r="R222" s="2"/>
+      <c r="S222" s="2"/>
+      <c r="T222" s="2"/>
+      <c r="U222" s="2"/>
+      <c r="V222" s="2"/>
       <c r="W222" s="2"/>
       <c r="X222" s="2"/>
       <c r="Y222" s="2"/>
@@ -7571,27 +7922,27 @@
     </row>
     <row r="223">
       <c r="A223" s="2"/>
-      <c r="B223" s="9"/>
-      <c r="C223" s="9"/>
-      <c r="D223" s="9"/>
-      <c r="E223" s="9"/>
+      <c r="B223" s="2"/>
+      <c r="C223" s="2"/>
+      <c r="D223" s="2"/>
+      <c r="E223" s="2"/>
       <c r="F223" s="2"/>
       <c r="G223" s="2"/>
-      <c r="H223" s="9"/>
-      <c r="I223" s="9"/>
-      <c r="J223" s="9"/>
-      <c r="K223" s="9"/>
-      <c r="L223" s="9"/>
-      <c r="M223" s="10"/>
-      <c r="N223" s="9"/>
-      <c r="O223" s="9"/>
-      <c r="P223" s="9"/>
-      <c r="Q223" s="9"/>
-      <c r="R223" s="9"/>
-      <c r="S223" s="9"/>
-      <c r="T223" s="9"/>
-      <c r="U223" s="9"/>
-      <c r="V223" s="9"/>
+      <c r="H223" s="2"/>
+      <c r="I223" s="2"/>
+      <c r="J223" s="2"/>
+      <c r="K223" s="2"/>
+      <c r="L223" s="2"/>
+      <c r="M223" s="2"/>
+      <c r="N223" s="2"/>
+      <c r="O223" s="2"/>
+      <c r="P223" s="2"/>
+      <c r="Q223" s="2"/>
+      <c r="R223" s="2"/>
+      <c r="S223" s="2"/>
+      <c r="T223" s="2"/>
+      <c r="U223" s="2"/>
+      <c r="V223" s="2"/>
       <c r="W223" s="2"/>
       <c r="X223" s="2"/>
       <c r="Y223" s="2"/>
@@ -7599,27 +7950,27 @@
     </row>
     <row r="224">
       <c r="A224" s="2"/>
-      <c r="B224" s="9"/>
-      <c r="C224" s="9"/>
-      <c r="D224" s="9"/>
-      <c r="E224" s="9"/>
+      <c r="B224" s="2"/>
+      <c r="C224" s="2"/>
+      <c r="D224" s="2"/>
+      <c r="E224" s="2"/>
       <c r="F224" s="2"/>
       <c r="G224" s="2"/>
-      <c r="H224" s="9"/>
-      <c r="I224" s="9"/>
-      <c r="J224" s="9"/>
-      <c r="K224" s="9"/>
-      <c r="L224" s="9"/>
-      <c r="M224" s="10"/>
-      <c r="N224" s="9"/>
-      <c r="O224" s="9"/>
-      <c r="P224" s="9"/>
-      <c r="Q224" s="9"/>
-      <c r="R224" s="9"/>
-      <c r="S224" s="9"/>
-      <c r="T224" s="9"/>
-      <c r="U224" s="9"/>
-      <c r="V224" s="3"/>
+      <c r="H224" s="2"/>
+      <c r="I224" s="2"/>
+      <c r="J224" s="2"/>
+      <c r="K224" s="2"/>
+      <c r="L224" s="2"/>
+      <c r="M224" s="2"/>
+      <c r="N224" s="2"/>
+      <c r="O224" s="2"/>
+      <c r="P224" s="2"/>
+      <c r="Q224" s="2"/>
+      <c r="R224" s="2"/>
+      <c r="S224" s="2"/>
+      <c r="T224" s="2"/>
+      <c r="U224" s="2"/>
+      <c r="V224" s="2"/>
       <c r="W224" s="2"/>
       <c r="X224" s="2"/>
       <c r="Y224" s="2"/>
@@ -7627,27 +7978,27 @@
     </row>
     <row r="225">
       <c r="A225" s="2"/>
-      <c r="B225" s="9"/>
-      <c r="C225" s="9"/>
-      <c r="D225" s="9"/>
-      <c r="E225" s="9"/>
+      <c r="B225" s="2"/>
+      <c r="C225" s="2"/>
+      <c r="D225" s="2"/>
+      <c r="E225" s="2"/>
       <c r="F225" s="2"/>
       <c r="G225" s="2"/>
-      <c r="H225" s="9"/>
-      <c r="I225" s="9"/>
-      <c r="J225" s="9"/>
-      <c r="K225" s="9"/>
-      <c r="L225" s="9"/>
-      <c r="M225" s="10"/>
-      <c r="N225" s="9"/>
-      <c r="O225" s="9"/>
-      <c r="P225" s="9"/>
-      <c r="Q225" s="9"/>
-      <c r="R225" s="9"/>
-      <c r="S225" s="9"/>
-      <c r="T225" s="9"/>
-      <c r="U225" s="9"/>
-      <c r="V225" s="3"/>
+      <c r="H225" s="2"/>
+      <c r="I225" s="2"/>
+      <c r="J225" s="2"/>
+      <c r="K225" s="2"/>
+      <c r="L225" s="2"/>
+      <c r="M225" s="2"/>
+      <c r="N225" s="2"/>
+      <c r="O225" s="2"/>
+      <c r="P225" s="2"/>
+      <c r="Q225" s="2"/>
+      <c r="R225" s="2"/>
+      <c r="S225" s="2"/>
+      <c r="T225" s="2"/>
+      <c r="U225" s="2"/>
+      <c r="V225" s="2"/>
       <c r="W225" s="2"/>
       <c r="X225" s="2"/>
       <c r="Y225" s="2"/>
@@ -7655,27 +8006,27 @@
     </row>
     <row r="226">
       <c r="A226" s="2"/>
-      <c r="B226" s="9"/>
-      <c r="C226" s="9"/>
-      <c r="D226" s="9"/>
-      <c r="E226" s="9"/>
+      <c r="B226" s="2"/>
+      <c r="C226" s="2"/>
+      <c r="D226" s="2"/>
+      <c r="E226" s="2"/>
       <c r="F226" s="2"/>
       <c r="G226" s="2"/>
-      <c r="H226" s="9"/>
-      <c r="I226" s="9"/>
-      <c r="J226" s="9"/>
-      <c r="K226" s="9"/>
-      <c r="L226" s="9"/>
-      <c r="M226" s="10"/>
-      <c r="N226" s="9"/>
-      <c r="O226" s="9"/>
-      <c r="P226" s="9"/>
-      <c r="Q226" s="9"/>
-      <c r="R226" s="9"/>
-      <c r="S226" s="9"/>
-      <c r="T226" s="9"/>
-      <c r="U226" s="9"/>
-      <c r="V226" s="3"/>
+      <c r="H226" s="2"/>
+      <c r="I226" s="2"/>
+      <c r="J226" s="2"/>
+      <c r="K226" s="2"/>
+      <c r="L226" s="2"/>
+      <c r="M226" s="2"/>
+      <c r="N226" s="2"/>
+      <c r="O226" s="2"/>
+      <c r="P226" s="2"/>
+      <c r="Q226" s="2"/>
+      <c r="R226" s="2"/>
+      <c r="S226" s="2"/>
+      <c r="T226" s="2"/>
+      <c r="U226" s="2"/>
+      <c r="V226" s="2"/>
       <c r="W226" s="2"/>
       <c r="X226" s="2"/>
       <c r="Y226" s="2"/>
@@ -7683,27 +8034,27 @@
     </row>
     <row r="227">
       <c r="A227" s="2"/>
-      <c r="B227" s="9"/>
-      <c r="C227" s="9"/>
-      <c r="D227" s="9"/>
-      <c r="E227" s="9"/>
+      <c r="B227" s="2"/>
+      <c r="C227" s="2"/>
+      <c r="D227" s="2"/>
+      <c r="E227" s="2"/>
       <c r="F227" s="2"/>
       <c r="G227" s="2"/>
-      <c r="H227" s="9"/>
-      <c r="I227" s="9"/>
-      <c r="J227" s="9"/>
-      <c r="K227" s="9"/>
-      <c r="L227" s="9"/>
-      <c r="M227" s="10"/>
-      <c r="N227" s="9"/>
-      <c r="O227" s="9"/>
-      <c r="P227" s="9"/>
-      <c r="Q227" s="9"/>
-      <c r="R227" s="9"/>
-      <c r="S227" s="9"/>
-      <c r="T227" s="9"/>
-      <c r="U227" s="9"/>
-      <c r="V227" s="3"/>
+      <c r="H227" s="2"/>
+      <c r="I227" s="2"/>
+      <c r="J227" s="2"/>
+      <c r="K227" s="2"/>
+      <c r="L227" s="2"/>
+      <c r="M227" s="2"/>
+      <c r="N227" s="2"/>
+      <c r="O227" s="2"/>
+      <c r="P227" s="2"/>
+      <c r="Q227" s="2"/>
+      <c r="R227" s="2"/>
+      <c r="S227" s="2"/>
+      <c r="T227" s="2"/>
+      <c r="U227" s="2"/>
+      <c r="V227" s="2"/>
       <c r="W227" s="2"/>
       <c r="X227" s="2"/>
       <c r="Y227" s="2"/>
@@ -7711,27 +8062,27 @@
     </row>
     <row r="228">
       <c r="A228" s="2"/>
-      <c r="B228" s="9"/>
-      <c r="C228" s="9"/>
-      <c r="D228" s="9"/>
-      <c r="E228" s="9"/>
+      <c r="B228" s="2"/>
+      <c r="C228" s="2"/>
+      <c r="D228" s="2"/>
+      <c r="E228" s="2"/>
       <c r="F228" s="2"/>
       <c r="G228" s="2"/>
-      <c r="H228" s="9"/>
-      <c r="I228" s="9"/>
-      <c r="J228" s="9"/>
-      <c r="K228" s="9"/>
-      <c r="L228" s="9"/>
-      <c r="M228" s="10"/>
-      <c r="N228" s="9"/>
-      <c r="O228" s="9"/>
-      <c r="P228" s="9"/>
-      <c r="Q228" s="9"/>
-      <c r="R228" s="9"/>
-      <c r="S228" s="9"/>
-      <c r="T228" s="9"/>
-      <c r="U228" s="9"/>
-      <c r="V228" s="3"/>
+      <c r="H228" s="2"/>
+      <c r="I228" s="2"/>
+      <c r="J228" s="2"/>
+      <c r="K228" s="2"/>
+      <c r="L228" s="2"/>
+      <c r="M228" s="2"/>
+      <c r="N228" s="2"/>
+      <c r="O228" s="2"/>
+      <c r="P228" s="2"/>
+      <c r="Q228" s="2"/>
+      <c r="R228" s="2"/>
+      <c r="S228" s="2"/>
+      <c r="T228" s="2"/>
+      <c r="U228" s="2"/>
+      <c r="V228" s="2"/>
       <c r="W228" s="2"/>
       <c r="X228" s="2"/>
       <c r="Y228" s="2"/>
@@ -7739,27 +8090,27 @@
     </row>
     <row r="229">
       <c r="A229" s="2"/>
-      <c r="B229" s="9"/>
-      <c r="C229" s="9"/>
-      <c r="D229" s="9"/>
-      <c r="E229" s="9"/>
+      <c r="B229" s="2"/>
+      <c r="C229" s="2"/>
+      <c r="D229" s="2"/>
+      <c r="E229" s="2"/>
       <c r="F229" s="2"/>
       <c r="G229" s="2"/>
-      <c r="H229" s="9"/>
-      <c r="I229" s="9"/>
-      <c r="J229" s="9"/>
-      <c r="K229" s="9"/>
-      <c r="L229" s="9"/>
-      <c r="M229" s="10"/>
-      <c r="N229" s="9"/>
-      <c r="O229" s="9"/>
-      <c r="P229" s="9"/>
-      <c r="Q229" s="9"/>
-      <c r="R229" s="9"/>
-      <c r="S229" s="9"/>
-      <c r="T229" s="9"/>
-      <c r="U229" s="9"/>
-      <c r="V229" s="9"/>
+      <c r="H229" s="2"/>
+      <c r="I229" s="2"/>
+      <c r="J229" s="2"/>
+      <c r="K229" s="2"/>
+      <c r="L229" s="2"/>
+      <c r="M229" s="2"/>
+      <c r="N229" s="2"/>
+      <c r="O229" s="2"/>
+      <c r="P229" s="2"/>
+      <c r="Q229" s="2"/>
+      <c r="R229" s="2"/>
+      <c r="S229" s="2"/>
+      <c r="T229" s="2"/>
+      <c r="U229" s="2"/>
+      <c r="V229" s="2"/>
       <c r="W229" s="2"/>
       <c r="X229" s="2"/>
       <c r="Y229" s="2"/>
@@ -7767,27 +8118,27 @@
     </row>
     <row r="230">
       <c r="A230" s="2"/>
-      <c r="B230" s="9"/>
-      <c r="C230" s="9"/>
-      <c r="D230" s="9"/>
-      <c r="E230" s="9"/>
+      <c r="B230" s="2"/>
+      <c r="C230" s="2"/>
+      <c r="D230" s="2"/>
+      <c r="E230" s="2"/>
       <c r="F230" s="2"/>
       <c r="G230" s="2"/>
-      <c r="H230" s="9"/>
-      <c r="I230" s="9"/>
-      <c r="J230" s="9"/>
-      <c r="K230" s="9"/>
-      <c r="L230" s="9"/>
-      <c r="M230" s="10"/>
-      <c r="N230" s="9"/>
-      <c r="O230" s="9"/>
-      <c r="P230" s="9"/>
-      <c r="Q230" s="9"/>
-      <c r="R230" s="9"/>
-      <c r="S230" s="9"/>
-      <c r="T230" s="9"/>
-      <c r="U230" s="9"/>
-      <c r="V230" s="9"/>
+      <c r="H230" s="2"/>
+      <c r="I230" s="2"/>
+      <c r="J230" s="2"/>
+      <c r="K230" s="2"/>
+      <c r="L230" s="2"/>
+      <c r="M230" s="2"/>
+      <c r="N230" s="2"/>
+      <c r="O230" s="2"/>
+      <c r="P230" s="2"/>
+      <c r="Q230" s="2"/>
+      <c r="R230" s="2"/>
+      <c r="S230" s="2"/>
+      <c r="T230" s="2"/>
+      <c r="U230" s="2"/>
+      <c r="V230" s="2"/>
       <c r="W230" s="2"/>
       <c r="X230" s="2"/>
       <c r="Y230" s="2"/>
@@ -7795,27 +8146,27 @@
     </row>
     <row r="231">
       <c r="A231" s="2"/>
-      <c r="B231" s="9"/>
-      <c r="C231" s="9"/>
-      <c r="D231" s="9"/>
-      <c r="E231" s="9"/>
+      <c r="B231" s="2"/>
+      <c r="C231" s="2"/>
+      <c r="D231" s="2"/>
+      <c r="E231" s="2"/>
       <c r="F231" s="2"/>
       <c r="G231" s="2"/>
-      <c r="H231" s="9"/>
-      <c r="I231" s="9"/>
-      <c r="J231" s="9"/>
-      <c r="K231" s="9"/>
-      <c r="L231" s="9"/>
-      <c r="M231" s="10"/>
-      <c r="N231" s="9"/>
-      <c r="O231" s="9"/>
-      <c r="P231" s="9"/>
-      <c r="Q231" s="9"/>
-      <c r="R231" s="9"/>
-      <c r="S231" s="9"/>
-      <c r="T231" s="9"/>
-      <c r="U231" s="9"/>
-      <c r="V231" s="9"/>
+      <c r="H231" s="2"/>
+      <c r="I231" s="2"/>
+      <c r="J231" s="2"/>
+      <c r="K231" s="2"/>
+      <c r="L231" s="2"/>
+      <c r="M231" s="2"/>
+      <c r="N231" s="2"/>
+      <c r="O231" s="2"/>
+      <c r="P231" s="2"/>
+      <c r="Q231" s="2"/>
+      <c r="R231" s="2"/>
+      <c r="S231" s="2"/>
+      <c r="T231" s="2"/>
+      <c r="U231" s="2"/>
+      <c r="V231" s="2"/>
       <c r="W231" s="2"/>
       <c r="X231" s="2"/>
       <c r="Y231" s="2"/>
@@ -7823,27 +8174,27 @@
     </row>
     <row r="232">
       <c r="A232" s="2"/>
-      <c r="B232" s="9"/>
-      <c r="C232" s="9"/>
-      <c r="D232" s="9"/>
-      <c r="E232" s="9"/>
+      <c r="B232" s="2"/>
+      <c r="C232" s="2"/>
+      <c r="D232" s="2"/>
+      <c r="E232" s="2"/>
       <c r="F232" s="2"/>
       <c r="G232" s="2"/>
-      <c r="H232" s="9"/>
-      <c r="I232" s="9"/>
-      <c r="J232" s="9"/>
-      <c r="K232" s="9"/>
-      <c r="L232" s="9"/>
-      <c r="M232" s="10"/>
-      <c r="N232" s="9"/>
-      <c r="O232" s="9"/>
-      <c r="P232" s="9"/>
-      <c r="Q232" s="9"/>
-      <c r="R232" s="9"/>
-      <c r="S232" s="9"/>
-      <c r="T232" s="9"/>
-      <c r="U232" s="9"/>
-      <c r="V232" s="9"/>
+      <c r="H232" s="2"/>
+      <c r="I232" s="2"/>
+      <c r="J232" s="2"/>
+      <c r="K232" s="2"/>
+      <c r="L232" s="2"/>
+      <c r="M232" s="2"/>
+      <c r="N232" s="2"/>
+      <c r="O232" s="2"/>
+      <c r="P232" s="2"/>
+      <c r="Q232" s="2"/>
+      <c r="R232" s="2"/>
+      <c r="S232" s="2"/>
+      <c r="T232" s="2"/>
+      <c r="U232" s="2"/>
+      <c r="V232" s="2"/>
       <c r="W232" s="2"/>
       <c r="X232" s="2"/>
       <c r="Y232" s="2"/>
@@ -7851,27 +8202,27 @@
     </row>
     <row r="233">
       <c r="A233" s="2"/>
-      <c r="B233" s="9"/>
-      <c r="C233" s="9"/>
-      <c r="D233" s="9"/>
-      <c r="E233" s="9"/>
+      <c r="B233" s="2"/>
+      <c r="C233" s="2"/>
+      <c r="D233" s="2"/>
+      <c r="E233" s="2"/>
       <c r="F233" s="2"/>
       <c r="G233" s="2"/>
-      <c r="H233" s="9"/>
-      <c r="I233" s="9"/>
-      <c r="J233" s="9"/>
-      <c r="K233" s="9"/>
-      <c r="L233" s="9"/>
-      <c r="M233" s="10"/>
-      <c r="N233" s="9"/>
-      <c r="O233" s="9"/>
-      <c r="P233" s="9"/>
-      <c r="Q233" s="9"/>
-      <c r="R233" s="9"/>
-      <c r="S233" s="9"/>
-      <c r="T233" s="9"/>
-      <c r="U233" s="9"/>
-      <c r="V233" s="3"/>
+      <c r="H233" s="2"/>
+      <c r="I233" s="2"/>
+      <c r="J233" s="2"/>
+      <c r="K233" s="2"/>
+      <c r="L233" s="2"/>
+      <c r="M233" s="2"/>
+      <c r="N233" s="2"/>
+      <c r="O233" s="2"/>
+      <c r="P233" s="2"/>
+      <c r="Q233" s="2"/>
+      <c r="R233" s="2"/>
+      <c r="S233" s="2"/>
+      <c r="T233" s="2"/>
+      <c r="U233" s="2"/>
+      <c r="V233" s="2"/>
       <c r="W233" s="2"/>
       <c r="X233" s="2"/>
       <c r="Y233" s="2"/>
@@ -7879,27 +8230,27 @@
     </row>
     <row r="234">
       <c r="A234" s="2"/>
-      <c r="B234" s="9"/>
-      <c r="C234" s="9"/>
-      <c r="D234" s="9"/>
-      <c r="E234" s="9"/>
+      <c r="B234" s="2"/>
+      <c r="C234" s="2"/>
+      <c r="D234" s="2"/>
+      <c r="E234" s="2"/>
       <c r="F234" s="2"/>
       <c r="G234" s="2"/>
-      <c r="H234" s="9"/>
-      <c r="I234" s="9"/>
-      <c r="J234" s="9"/>
-      <c r="K234" s="9"/>
-      <c r="L234" s="9"/>
-      <c r="M234" s="10"/>
-      <c r="N234" s="9"/>
-      <c r="O234" s="9"/>
-      <c r="P234" s="9"/>
-      <c r="Q234" s="9"/>
-      <c r="R234" s="9"/>
-      <c r="S234" s="9"/>
-      <c r="T234" s="9"/>
-      <c r="U234" s="9"/>
-      <c r="V234" s="3"/>
+      <c r="H234" s="2"/>
+      <c r="I234" s="2"/>
+      <c r="J234" s="2"/>
+      <c r="K234" s="2"/>
+      <c r="L234" s="2"/>
+      <c r="M234" s="2"/>
+      <c r="N234" s="2"/>
+      <c r="O234" s="2"/>
+      <c r="P234" s="2"/>
+      <c r="Q234" s="2"/>
+      <c r="R234" s="2"/>
+      <c r="S234" s="2"/>
+      <c r="T234" s="2"/>
+      <c r="U234" s="2"/>
+      <c r="V234" s="2"/>
       <c r="W234" s="2"/>
       <c r="X234" s="2"/>
       <c r="Y234" s="2"/>
@@ -7907,27 +8258,27 @@
     </row>
     <row r="235">
       <c r="A235" s="2"/>
-      <c r="B235" s="9"/>
-      <c r="C235" s="9"/>
-      <c r="D235" s="9"/>
-      <c r="E235" s="9"/>
+      <c r="B235" s="2"/>
+      <c r="C235" s="2"/>
+      <c r="D235" s="2"/>
+      <c r="E235" s="2"/>
       <c r="F235" s="2"/>
       <c r="G235" s="2"/>
-      <c r="H235" s="9"/>
-      <c r="I235" s="9"/>
-      <c r="J235" s="9"/>
-      <c r="K235" s="9"/>
-      <c r="L235" s="9"/>
-      <c r="M235" s="10"/>
-      <c r="N235" s="9"/>
-      <c r="O235" s="9"/>
-      <c r="P235" s="9"/>
-      <c r="Q235" s="9"/>
-      <c r="R235" s="9"/>
-      <c r="S235" s="9"/>
-      <c r="T235" s="9"/>
-      <c r="U235" s="9"/>
-      <c r="V235" s="9"/>
+      <c r="H235" s="2"/>
+      <c r="I235" s="2"/>
+      <c r="J235" s="2"/>
+      <c r="K235" s="2"/>
+      <c r="L235" s="2"/>
+      <c r="M235" s="2"/>
+      <c r="N235" s="2"/>
+      <c r="O235" s="2"/>
+      <c r="P235" s="2"/>
+      <c r="Q235" s="2"/>
+      <c r="R235" s="2"/>
+      <c r="S235" s="2"/>
+      <c r="T235" s="2"/>
+      <c r="U235" s="2"/>
+      <c r="V235" s="2"/>
       <c r="W235" s="2"/>
       <c r="X235" s="2"/>
       <c r="Y235" s="2"/>
@@ -7935,27 +8286,27 @@
     </row>
     <row r="236">
       <c r="A236" s="2"/>
-      <c r="B236" s="9"/>
-      <c r="C236" s="9"/>
-      <c r="D236" s="9"/>
-      <c r="E236" s="9"/>
+      <c r="B236" s="2"/>
+      <c r="C236" s="2"/>
+      <c r="D236" s="2"/>
+      <c r="E236" s="2"/>
       <c r="F236" s="2"/>
       <c r="G236" s="2"/>
-      <c r="H236" s="9"/>
-      <c r="I236" s="9"/>
-      <c r="J236" s="9"/>
-      <c r="K236" s="9"/>
-      <c r="L236" s="9"/>
-      <c r="M236" s="10"/>
-      <c r="N236" s="9"/>
-      <c r="O236" s="9"/>
-      <c r="P236" s="9"/>
-      <c r="Q236" s="9"/>
-      <c r="R236" s="9"/>
-      <c r="S236" s="9"/>
-      <c r="T236" s="9"/>
-      <c r="U236" s="9"/>
-      <c r="V236" s="9"/>
+      <c r="H236" s="2"/>
+      <c r="I236" s="2"/>
+      <c r="J236" s="2"/>
+      <c r="K236" s="2"/>
+      <c r="L236" s="2"/>
+      <c r="M236" s="2"/>
+      <c r="N236" s="2"/>
+      <c r="O236" s="2"/>
+      <c r="P236" s="2"/>
+      <c r="Q236" s="2"/>
+      <c r="R236" s="2"/>
+      <c r="S236" s="2"/>
+      <c r="T236" s="2"/>
+      <c r="U236" s="2"/>
+      <c r="V236" s="2"/>
       <c r="W236" s="2"/>
       <c r="X236" s="2"/>
       <c r="Y236" s="2"/>
@@ -7963,27 +8314,27 @@
     </row>
     <row r="237">
       <c r="A237" s="2"/>
-      <c r="B237" s="9"/>
-      <c r="C237" s="9"/>
-      <c r="D237" s="9"/>
-      <c r="E237" s="9"/>
+      <c r="B237" s="2"/>
+      <c r="C237" s="2"/>
+      <c r="D237" s="2"/>
+      <c r="E237" s="2"/>
       <c r="F237" s="2"/>
       <c r="G237" s="2"/>
-      <c r="H237" s="9"/>
-      <c r="I237" s="9"/>
-      <c r="J237" s="9"/>
-      <c r="K237" s="9"/>
-      <c r="L237" s="9"/>
-      <c r="M237" s="10"/>
-      <c r="N237" s="9"/>
-      <c r="O237" s="9"/>
-      <c r="P237" s="9"/>
-      <c r="Q237" s="9"/>
-      <c r="R237" s="9"/>
-      <c r="S237" s="9"/>
-      <c r="T237" s="9"/>
-      <c r="U237" s="9"/>
-      <c r="V237" s="3"/>
+      <c r="H237" s="2"/>
+      <c r="I237" s="2"/>
+      <c r="J237" s="2"/>
+      <c r="K237" s="2"/>
+      <c r="L237" s="2"/>
+      <c r="M237" s="2"/>
+      <c r="N237" s="2"/>
+      <c r="O237" s="2"/>
+      <c r="P237" s="2"/>
+      <c r="Q237" s="2"/>
+      <c r="R237" s="2"/>
+      <c r="S237" s="2"/>
+      <c r="T237" s="2"/>
+      <c r="U237" s="2"/>
+      <c r="V237" s="2"/>
       <c r="W237" s="2"/>
       <c r="X237" s="2"/>
       <c r="Y237" s="2"/>
@@ -7991,27 +8342,27 @@
     </row>
     <row r="238">
       <c r="A238" s="2"/>
-      <c r="B238" s="9"/>
-      <c r="C238" s="9"/>
-      <c r="D238" s="9"/>
-      <c r="E238" s="9"/>
+      <c r="B238" s="2"/>
+      <c r="C238" s="2"/>
+      <c r="D238" s="2"/>
+      <c r="E238" s="2"/>
       <c r="F238" s="2"/>
       <c r="G238" s="2"/>
-      <c r="H238" s="9"/>
-      <c r="I238" s="9"/>
-      <c r="J238" s="9"/>
-      <c r="K238" s="9"/>
-      <c r="L238" s="9"/>
-      <c r="M238" s="10"/>
-      <c r="N238" s="9"/>
-      <c r="O238" s="9"/>
-      <c r="P238" s="9"/>
-      <c r="Q238" s="9"/>
-      <c r="R238" s="9"/>
-      <c r="S238" s="9"/>
-      <c r="T238" s="9"/>
-      <c r="U238" s="9"/>
-      <c r="V238" s="3"/>
+      <c r="H238" s="2"/>
+      <c r="I238" s="2"/>
+      <c r="J238" s="2"/>
+      <c r="K238" s="2"/>
+      <c r="L238" s="2"/>
+      <c r="M238" s="2"/>
+      <c r="N238" s="2"/>
+      <c r="O238" s="2"/>
+      <c r="P238" s="2"/>
+      <c r="Q238" s="2"/>
+      <c r="R238" s="2"/>
+      <c r="S238" s="2"/>
+      <c r="T238" s="2"/>
+      <c r="U238" s="2"/>
+      <c r="V238" s="2"/>
       <c r="W238" s="2"/>
       <c r="X238" s="2"/>
       <c r="Y238" s="2"/>
@@ -8019,27 +8370,27 @@
     </row>
     <row r="239">
       <c r="A239" s="2"/>
-      <c r="B239" s="9"/>
-      <c r="C239" s="9"/>
-      <c r="D239" s="9"/>
-      <c r="E239" s="9"/>
+      <c r="B239" s="2"/>
+      <c r="C239" s="2"/>
+      <c r="D239" s="2"/>
+      <c r="E239" s="2"/>
       <c r="F239" s="2"/>
       <c r="G239" s="2"/>
-      <c r="H239" s="9"/>
-      <c r="I239" s="9"/>
-      <c r="J239" s="9"/>
-      <c r="K239" s="9"/>
-      <c r="L239" s="9"/>
-      <c r="M239" s="10"/>
-      <c r="N239" s="9"/>
-      <c r="O239" s="9"/>
-      <c r="P239" s="9"/>
-      <c r="Q239" s="9"/>
-      <c r="R239" s="9"/>
-      <c r="S239" s="9"/>
-      <c r="T239" s="9"/>
-      <c r="U239" s="9"/>
-      <c r="V239" s="9"/>
+      <c r="H239" s="2"/>
+      <c r="I239" s="2"/>
+      <c r="J239" s="2"/>
+      <c r="K239" s="2"/>
+      <c r="L239" s="2"/>
+      <c r="M239" s="2"/>
+      <c r="N239" s="2"/>
+      <c r="O239" s="2"/>
+      <c r="P239" s="2"/>
+      <c r="Q239" s="2"/>
+      <c r="R239" s="2"/>
+      <c r="S239" s="2"/>
+      <c r="T239" s="2"/>
+      <c r="U239" s="2"/>
+      <c r="V239" s="2"/>
       <c r="W239" s="2"/>
       <c r="X239" s="2"/>
       <c r="Y239" s="2"/>
@@ -8047,27 +8398,27 @@
     </row>
     <row r="240">
       <c r="A240" s="2"/>
-      <c r="B240" s="9"/>
-      <c r="C240" s="9"/>
-      <c r="D240" s="9"/>
-      <c r="E240" s="9"/>
+      <c r="B240" s="2"/>
+      <c r="C240" s="2"/>
+      <c r="D240" s="2"/>
+      <c r="E240" s="2"/>
       <c r="F240" s="2"/>
       <c r="G240" s="2"/>
-      <c r="H240" s="9"/>
-      <c r="I240" s="9"/>
-      <c r="J240" s="9"/>
-      <c r="K240" s="9"/>
-      <c r="L240" s="9"/>
-      <c r="M240" s="10"/>
-      <c r="N240" s="9"/>
-      <c r="O240" s="9"/>
-      <c r="P240" s="9"/>
-      <c r="Q240" s="9"/>
-      <c r="R240" s="9"/>
-      <c r="S240" s="9"/>
-      <c r="T240" s="9"/>
-      <c r="U240" s="9"/>
-      <c r="V240" s="9"/>
+      <c r="H240" s="2"/>
+      <c r="I240" s="2"/>
+      <c r="J240" s="2"/>
+      <c r="K240" s="2"/>
+      <c r="L240" s="2"/>
+      <c r="M240" s="2"/>
+      <c r="N240" s="2"/>
+      <c r="O240" s="2"/>
+      <c r="P240" s="2"/>
+      <c r="Q240" s="2"/>
+      <c r="R240" s="2"/>
+      <c r="S240" s="2"/>
+      <c r="T240" s="2"/>
+      <c r="U240" s="2"/>
+      <c r="V240" s="2"/>
       <c r="W240" s="2"/>
       <c r="X240" s="2"/>
       <c r="Y240" s="2"/>
@@ -8075,27 +8426,27 @@
     </row>
     <row r="241">
       <c r="A241" s="2"/>
-      <c r="B241" s="9"/>
-      <c r="C241" s="9"/>
-      <c r="D241" s="9"/>
-      <c r="E241" s="9"/>
+      <c r="B241" s="2"/>
+      <c r="C241" s="2"/>
+      <c r="D241" s="2"/>
+      <c r="E241" s="2"/>
       <c r="F241" s="2"/>
       <c r="G241" s="2"/>
-      <c r="H241" s="9"/>
-      <c r="I241" s="9"/>
-      <c r="J241" s="9"/>
-      <c r="K241" s="9"/>
-      <c r="L241" s="9"/>
-      <c r="M241" s="10"/>
-      <c r="N241" s="9"/>
-      <c r="O241" s="9"/>
-      <c r="P241" s="9"/>
-      <c r="Q241" s="9"/>
-      <c r="R241" s="9"/>
-      <c r="S241" s="9"/>
-      <c r="T241" s="9"/>
-      <c r="U241" s="9"/>
-      <c r="V241" s="9"/>
+      <c r="H241" s="2"/>
+      <c r="I241" s="2"/>
+      <c r="J241" s="2"/>
+      <c r="K241" s="2"/>
+      <c r="L241" s="2"/>
+      <c r="M241" s="2"/>
+      <c r="N241" s="2"/>
+      <c r="O241" s="2"/>
+      <c r="P241" s="2"/>
+      <c r="Q241" s="2"/>
+      <c r="R241" s="2"/>
+      <c r="S241" s="2"/>
+      <c r="T241" s="2"/>
+      <c r="U241" s="2"/>
+      <c r="V241" s="2"/>
       <c r="W241" s="2"/>
       <c r="X241" s="2"/>
       <c r="Y241" s="2"/>
@@ -8103,27 +8454,27 @@
     </row>
     <row r="242">
       <c r="A242" s="2"/>
-      <c r="B242" s="9"/>
-      <c r="C242" s="9"/>
-      <c r="D242" s="9"/>
-      <c r="E242" s="9"/>
+      <c r="B242" s="2"/>
+      <c r="C242" s="2"/>
+      <c r="D242" s="2"/>
+      <c r="E242" s="2"/>
       <c r="F242" s="2"/>
       <c r="G242" s="2"/>
-      <c r="H242" s="9"/>
-      <c r="I242" s="9"/>
-      <c r="J242" s="9"/>
-      <c r="K242" s="9"/>
-      <c r="L242" s="9"/>
-      <c r="M242" s="10"/>
-      <c r="N242" s="9"/>
-      <c r="O242" s="9"/>
-      <c r="P242" s="9"/>
-      <c r="Q242" s="9"/>
-      <c r="R242" s="9"/>
-      <c r="S242" s="9"/>
-      <c r="T242" s="9"/>
-      <c r="U242" s="9"/>
-      <c r="V242" s="9"/>
+      <c r="H242" s="2"/>
+      <c r="I242" s="2"/>
+      <c r="J242" s="2"/>
+      <c r="K242" s="2"/>
+      <c r="L242" s="2"/>
+      <c r="M242" s="2"/>
+      <c r="N242" s="2"/>
+      <c r="O242" s="2"/>
+      <c r="P242" s="2"/>
+      <c r="Q242" s="2"/>
+      <c r="R242" s="2"/>
+      <c r="S242" s="2"/>
+      <c r="T242" s="2"/>
+      <c r="U242" s="2"/>
+      <c r="V242" s="2"/>
       <c r="W242" s="2"/>
       <c r="X242" s="2"/>
       <c r="Y242" s="2"/>
@@ -8131,27 +8482,27 @@
     </row>
     <row r="243">
       <c r="A243" s="2"/>
-      <c r="B243" s="9"/>
-      <c r="C243" s="9"/>
-      <c r="D243" s="9"/>
-      <c r="E243" s="9"/>
+      <c r="B243" s="2"/>
+      <c r="C243" s="2"/>
+      <c r="D243" s="2"/>
+      <c r="E243" s="2"/>
       <c r="F243" s="2"/>
       <c r="G243" s="2"/>
-      <c r="H243" s="9"/>
-      <c r="I243" s="9"/>
-      <c r="J243" s="9"/>
-      <c r="K243" s="9"/>
-      <c r="L243" s="9"/>
-      <c r="M243" s="10"/>
-      <c r="N243" s="9"/>
-      <c r="O243" s="9"/>
-      <c r="P243" s="9"/>
-      <c r="Q243" s="9"/>
-      <c r="R243" s="9"/>
-      <c r="S243" s="9"/>
-      <c r="T243" s="9"/>
-      <c r="U243" s="9"/>
-      <c r="V243" s="9"/>
+      <c r="H243" s="2"/>
+      <c r="I243" s="2"/>
+      <c r="J243" s="2"/>
+      <c r="K243" s="2"/>
+      <c r="L243" s="2"/>
+      <c r="M243" s="2"/>
+      <c r="N243" s="2"/>
+      <c r="O243" s="2"/>
+      <c r="P243" s="2"/>
+      <c r="Q243" s="2"/>
+      <c r="R243" s="2"/>
+      <c r="S243" s="2"/>
+      <c r="T243" s="2"/>
+      <c r="U243" s="2"/>
+      <c r="V243" s="2"/>
       <c r="W243" s="2"/>
       <c r="X243" s="2"/>
       <c r="Y243" s="2"/>
@@ -8159,27 +8510,27 @@
     </row>
     <row r="244">
       <c r="A244" s="2"/>
-      <c r="B244" s="9"/>
-      <c r="C244" s="9"/>
-      <c r="D244" s="9"/>
-      <c r="E244" s="9"/>
+      <c r="B244" s="2"/>
+      <c r="C244" s="2"/>
+      <c r="D244" s="2"/>
+      <c r="E244" s="2"/>
       <c r="F244" s="2"/>
       <c r="G244" s="2"/>
-      <c r="H244" s="9"/>
-      <c r="I244" s="9"/>
-      <c r="J244" s="9"/>
-      <c r="K244" s="9"/>
-      <c r="L244" s="9"/>
-      <c r="M244" s="10"/>
-      <c r="N244" s="9"/>
-      <c r="O244" s="9"/>
-      <c r="P244" s="9"/>
-      <c r="Q244" s="9"/>
-      <c r="R244" s="9"/>
-      <c r="S244" s="9"/>
-      <c r="T244" s="9"/>
-      <c r="U244" s="9"/>
-      <c r="V244" s="9"/>
+      <c r="H244" s="2"/>
+      <c r="I244" s="2"/>
+      <c r="J244" s="2"/>
+      <c r="K244" s="2"/>
+      <c r="L244" s="2"/>
+      <c r="M244" s="2"/>
+      <c r="N244" s="2"/>
+      <c r="O244" s="2"/>
+      <c r="P244" s="2"/>
+      <c r="Q244" s="2"/>
+      <c r="R244" s="2"/>
+      <c r="S244" s="2"/>
+      <c r="T244" s="2"/>
+      <c r="U244" s="2"/>
+      <c r="V244" s="2"/>
       <c r="W244" s="2"/>
       <c r="X244" s="2"/>
       <c r="Y244" s="2"/>
@@ -8187,27 +8538,27 @@
     </row>
     <row r="245">
       <c r="A245" s="2"/>
-      <c r="B245" s="9"/>
-      <c r="C245" s="9"/>
-      <c r="D245" s="9"/>
-      <c r="E245" s="9"/>
+      <c r="B245" s="2"/>
+      <c r="C245" s="2"/>
+      <c r="D245" s="2"/>
+      <c r="E245" s="2"/>
       <c r="F245" s="2"/>
       <c r="G245" s="2"/>
-      <c r="H245" s="9"/>
-      <c r="I245" s="9"/>
-      <c r="J245" s="9"/>
-      <c r="K245" s="9"/>
-      <c r="L245" s="9"/>
-      <c r="M245" s="10"/>
-      <c r="N245" s="9"/>
-      <c r="O245" s="9"/>
-      <c r="P245" s="9"/>
-      <c r="Q245" s="9"/>
-      <c r="R245" s="9"/>
-      <c r="S245" s="9"/>
-      <c r="T245" s="9"/>
-      <c r="U245" s="9"/>
-      <c r="V245" s="9"/>
+      <c r="H245" s="2"/>
+      <c r="I245" s="2"/>
+      <c r="J245" s="2"/>
+      <c r="K245" s="2"/>
+      <c r="L245" s="2"/>
+      <c r="M245" s="2"/>
+      <c r="N245" s="2"/>
+      <c r="O245" s="2"/>
+      <c r="P245" s="2"/>
+      <c r="Q245" s="2"/>
+      <c r="R245" s="2"/>
+      <c r="S245" s="2"/>
+      <c r="T245" s="2"/>
+      <c r="U245" s="2"/>
+      <c r="V245" s="2"/>
       <c r="W245" s="2"/>
       <c r="X245" s="2"/>
       <c r="Y245" s="2"/>
@@ -27925,958 +28276,6 @@
       <c r="Y949" s="2"/>
       <c r="Z949" s="2"/>
     </row>
-    <row r="950">
-      <c r="A950" s="2"/>
-      <c r="B950" s="2"/>
-      <c r="C950" s="2"/>
-      <c r="D950" s="2"/>
-      <c r="E950" s="2"/>
-      <c r="F950" s="2"/>
-      <c r="G950" s="2"/>
-      <c r="H950" s="2"/>
-      <c r="I950" s="2"/>
-      <c r="J950" s="2"/>
-      <c r="K950" s="2"/>
-      <c r="L950" s="2"/>
-      <c r="M950" s="2"/>
-      <c r="N950" s="2"/>
-      <c r="O950" s="2"/>
-      <c r="P950" s="2"/>
-      <c r="Q950" s="2"/>
-      <c r="R950" s="2"/>
-      <c r="S950" s="2"/>
-      <c r="T950" s="2"/>
-      <c r="U950" s="2"/>
-      <c r="V950" s="2"/>
-      <c r="W950" s="2"/>
-      <c r="X950" s="2"/>
-      <c r="Y950" s="2"/>
-      <c r="Z950" s="2"/>
-    </row>
-    <row r="951">
-      <c r="A951" s="2"/>
-      <c r="B951" s="2"/>
-      <c r="C951" s="2"/>
-      <c r="D951" s="2"/>
-      <c r="E951" s="2"/>
-      <c r="F951" s="2"/>
-      <c r="G951" s="2"/>
-      <c r="H951" s="2"/>
-      <c r="I951" s="2"/>
-      <c r="J951" s="2"/>
-      <c r="K951" s="2"/>
-      <c r="L951" s="2"/>
-      <c r="M951" s="2"/>
-      <c r="N951" s="2"/>
-      <c r="O951" s="2"/>
-      <c r="P951" s="2"/>
-      <c r="Q951" s="2"/>
-      <c r="R951" s="2"/>
-      <c r="S951" s="2"/>
-      <c r="T951" s="2"/>
-      <c r="U951" s="2"/>
-      <c r="V951" s="2"/>
-      <c r="W951" s="2"/>
-      <c r="X951" s="2"/>
-      <c r="Y951" s="2"/>
-      <c r="Z951" s="2"/>
-    </row>
-    <row r="952">
-      <c r="A952" s="2"/>
-      <c r="B952" s="2"/>
-      <c r="C952" s="2"/>
-      <c r="D952" s="2"/>
-      <c r="E952" s="2"/>
-      <c r="F952" s="2"/>
-      <c r="G952" s="2"/>
-      <c r="H952" s="2"/>
-      <c r="I952" s="2"/>
-      <c r="J952" s="2"/>
-      <c r="K952" s="2"/>
-      <c r="L952" s="2"/>
-      <c r="M952" s="2"/>
-      <c r="N952" s="2"/>
-      <c r="O952" s="2"/>
-      <c r="P952" s="2"/>
-      <c r="Q952" s="2"/>
-      <c r="R952" s="2"/>
-      <c r="S952" s="2"/>
-      <c r="T952" s="2"/>
-      <c r="U952" s="2"/>
-      <c r="V952" s="2"/>
-      <c r="W952" s="2"/>
-      <c r="X952" s="2"/>
-      <c r="Y952" s="2"/>
-      <c r="Z952" s="2"/>
-    </row>
-    <row r="953">
-      <c r="A953" s="2"/>
-      <c r="B953" s="2"/>
-      <c r="C953" s="2"/>
-      <c r="D953" s="2"/>
-      <c r="E953" s="2"/>
-      <c r="F953" s="2"/>
-      <c r="G953" s="2"/>
-      <c r="H953" s="2"/>
-      <c r="I953" s="2"/>
-      <c r="J953" s="2"/>
-      <c r="K953" s="2"/>
-      <c r="L953" s="2"/>
-      <c r="M953" s="2"/>
-      <c r="N953" s="2"/>
-      <c r="O953" s="2"/>
-      <c r="P953" s="2"/>
-      <c r="Q953" s="2"/>
-      <c r="R953" s="2"/>
-      <c r="S953" s="2"/>
-      <c r="T953" s="2"/>
-      <c r="U953" s="2"/>
-      <c r="V953" s="2"/>
-      <c r="W953" s="2"/>
-      <c r="X953" s="2"/>
-      <c r="Y953" s="2"/>
-      <c r="Z953" s="2"/>
-    </row>
-    <row r="954">
-      <c r="A954" s="2"/>
-      <c r="B954" s="2"/>
-      <c r="C954" s="2"/>
-      <c r="D954" s="2"/>
-      <c r="E954" s="2"/>
-      <c r="F954" s="2"/>
-      <c r="G954" s="2"/>
-      <c r="H954" s="2"/>
-      <c r="I954" s="2"/>
-      <c r="J954" s="2"/>
-      <c r="K954" s="2"/>
-      <c r="L954" s="2"/>
-      <c r="M954" s="2"/>
-      <c r="N954" s="2"/>
-      <c r="O954" s="2"/>
-      <c r="P954" s="2"/>
-      <c r="Q954" s="2"/>
-      <c r="R954" s="2"/>
-      <c r="S954" s="2"/>
-      <c r="T954" s="2"/>
-      <c r="U954" s="2"/>
-      <c r="V954" s="2"/>
-      <c r="W954" s="2"/>
-      <c r="X954" s="2"/>
-      <c r="Y954" s="2"/>
-      <c r="Z954" s="2"/>
-    </row>
-    <row r="955">
-      <c r="A955" s="2"/>
-      <c r="B955" s="2"/>
-      <c r="C955" s="2"/>
-      <c r="D955" s="2"/>
-      <c r="E955" s="2"/>
-      <c r="F955" s="2"/>
-      <c r="G955" s="2"/>
-      <c r="H955" s="2"/>
-      <c r="I955" s="2"/>
-      <c r="J955" s="2"/>
-      <c r="K955" s="2"/>
-      <c r="L955" s="2"/>
-      <c r="M955" s="2"/>
-      <c r="N955" s="2"/>
-      <c r="O955" s="2"/>
-      <c r="P955" s="2"/>
-      <c r="Q955" s="2"/>
-      <c r="R955" s="2"/>
-      <c r="S955" s="2"/>
-      <c r="T955" s="2"/>
-      <c r="U955" s="2"/>
-      <c r="V955" s="2"/>
-      <c r="W955" s="2"/>
-      <c r="X955" s="2"/>
-      <c r="Y955" s="2"/>
-      <c r="Z955" s="2"/>
-    </row>
-    <row r="956">
-      <c r="A956" s="2"/>
-      <c r="B956" s="2"/>
-      <c r="C956" s="2"/>
-      <c r="D956" s="2"/>
-      <c r="E956" s="2"/>
-      <c r="F956" s="2"/>
-      <c r="G956" s="2"/>
-      <c r="H956" s="2"/>
-      <c r="I956" s="2"/>
-      <c r="J956" s="2"/>
-      <c r="K956" s="2"/>
-      <c r="L956" s="2"/>
-      <c r="M956" s="2"/>
-      <c r="N956" s="2"/>
-      <c r="O956" s="2"/>
-      <c r="P956" s="2"/>
-      <c r="Q956" s="2"/>
-      <c r="R956" s="2"/>
-      <c r="S956" s="2"/>
-      <c r="T956" s="2"/>
-      <c r="U956" s="2"/>
-      <c r="V956" s="2"/>
-      <c r="W956" s="2"/>
-      <c r="X956" s="2"/>
-      <c r="Y956" s="2"/>
-      <c r="Z956" s="2"/>
-    </row>
-    <row r="957">
-      <c r="A957" s="2"/>
-      <c r="B957" s="2"/>
-      <c r="C957" s="2"/>
-      <c r="D957" s="2"/>
-      <c r="E957" s="2"/>
-      <c r="F957" s="2"/>
-      <c r="G957" s="2"/>
-      <c r="H957" s="2"/>
-      <c r="I957" s="2"/>
-      <c r="J957" s="2"/>
-      <c r="K957" s="2"/>
-      <c r="L957" s="2"/>
-      <c r="M957" s="2"/>
-      <c r="N957" s="2"/>
-      <c r="O957" s="2"/>
-      <c r="P957" s="2"/>
-      <c r="Q957" s="2"/>
-      <c r="R957" s="2"/>
-      <c r="S957" s="2"/>
-      <c r="T957" s="2"/>
-      <c r="U957" s="2"/>
-      <c r="V957" s="2"/>
-      <c r="W957" s="2"/>
-      <c r="X957" s="2"/>
-      <c r="Y957" s="2"/>
-      <c r="Z957" s="2"/>
-    </row>
-    <row r="958">
-      <c r="A958" s="2"/>
-      <c r="B958" s="2"/>
-      <c r="C958" s="2"/>
-      <c r="D958" s="2"/>
-      <c r="E958" s="2"/>
-      <c r="F958" s="2"/>
-      <c r="G958" s="2"/>
-      <c r="H958" s="2"/>
-      <c r="I958" s="2"/>
-      <c r="J958" s="2"/>
-      <c r="K958" s="2"/>
-      <c r="L958" s="2"/>
-      <c r="M958" s="2"/>
-      <c r="N958" s="2"/>
-      <c r="O958" s="2"/>
-      <c r="P958" s="2"/>
-      <c r="Q958" s="2"/>
-      <c r="R958" s="2"/>
-      <c r="S958" s="2"/>
-      <c r="T958" s="2"/>
-      <c r="U958" s="2"/>
-      <c r="V958" s="2"/>
-      <c r="W958" s="2"/>
-      <c r="X958" s="2"/>
-      <c r="Y958" s="2"/>
-      <c r="Z958" s="2"/>
-    </row>
-    <row r="959">
-      <c r="A959" s="2"/>
-      <c r="B959" s="2"/>
-      <c r="C959" s="2"/>
-      <c r="D959" s="2"/>
-      <c r="E959" s="2"/>
-      <c r="F959" s="2"/>
-      <c r="G959" s="2"/>
-      <c r="H959" s="2"/>
-      <c r="I959" s="2"/>
-      <c r="J959" s="2"/>
-      <c r="K959" s="2"/>
-      <c r="L959" s="2"/>
-      <c r="M959" s="2"/>
-      <c r="N959" s="2"/>
-      <c r="O959" s="2"/>
-      <c r="P959" s="2"/>
-      <c r="Q959" s="2"/>
-      <c r="R959" s="2"/>
-      <c r="S959" s="2"/>
-      <c r="T959" s="2"/>
-      <c r="U959" s="2"/>
-      <c r="V959" s="2"/>
-      <c r="W959" s="2"/>
-      <c r="X959" s="2"/>
-      <c r="Y959" s="2"/>
-      <c r="Z959" s="2"/>
-    </row>
-    <row r="960">
-      <c r="A960" s="2"/>
-      <c r="B960" s="2"/>
-      <c r="C960" s="2"/>
-      <c r="D960" s="2"/>
-      <c r="E960" s="2"/>
-      <c r="F960" s="2"/>
-      <c r="G960" s="2"/>
-      <c r="H960" s="2"/>
-      <c r="I960" s="2"/>
-      <c r="J960" s="2"/>
-      <c r="K960" s="2"/>
-      <c r="L960" s="2"/>
-      <c r="M960" s="2"/>
-      <c r="N960" s="2"/>
-      <c r="O960" s="2"/>
-      <c r="P960" s="2"/>
-      <c r="Q960" s="2"/>
-      <c r="R960" s="2"/>
-      <c r="S960" s="2"/>
-      <c r="T960" s="2"/>
-      <c r="U960" s="2"/>
-      <c r="V960" s="2"/>
-      <c r="W960" s="2"/>
-      <c r="X960" s="2"/>
-      <c r="Y960" s="2"/>
-      <c r="Z960" s="2"/>
-    </row>
-    <row r="961">
-      <c r="A961" s="2"/>
-      <c r="B961" s="2"/>
-      <c r="C961" s="2"/>
-      <c r="D961" s="2"/>
-      <c r="E961" s="2"/>
-      <c r="F961" s="2"/>
-      <c r="G961" s="2"/>
-      <c r="H961" s="2"/>
-      <c r="I961" s="2"/>
-      <c r="J961" s="2"/>
-      <c r="K961" s="2"/>
-      <c r="L961" s="2"/>
-      <c r="M961" s="2"/>
-      <c r="N961" s="2"/>
-      <c r="O961" s="2"/>
-      <c r="P961" s="2"/>
-      <c r="Q961" s="2"/>
-      <c r="R961" s="2"/>
-      <c r="S961" s="2"/>
-      <c r="T961" s="2"/>
-      <c r="U961" s="2"/>
-      <c r="V961" s="2"/>
-      <c r="W961" s="2"/>
-      <c r="X961" s="2"/>
-      <c r="Y961" s="2"/>
-      <c r="Z961" s="2"/>
-    </row>
-    <row r="962">
-      <c r="A962" s="2"/>
-      <c r="B962" s="2"/>
-      <c r="C962" s="2"/>
-      <c r="D962" s="2"/>
-      <c r="E962" s="2"/>
-      <c r="F962" s="2"/>
-      <c r="G962" s="2"/>
-      <c r="H962" s="2"/>
-      <c r="I962" s="2"/>
-      <c r="J962" s="2"/>
-      <c r="K962" s="2"/>
-      <c r="L962" s="2"/>
-      <c r="M962" s="2"/>
-      <c r="N962" s="2"/>
-      <c r="O962" s="2"/>
-      <c r="P962" s="2"/>
-      <c r="Q962" s="2"/>
-      <c r="R962" s="2"/>
-      <c r="S962" s="2"/>
-      <c r="T962" s="2"/>
-      <c r="U962" s="2"/>
-      <c r="V962" s="2"/>
-      <c r="W962" s="2"/>
-      <c r="X962" s="2"/>
-      <c r="Y962" s="2"/>
-      <c r="Z962" s="2"/>
-    </row>
-    <row r="963">
-      <c r="A963" s="2"/>
-      <c r="B963" s="2"/>
-      <c r="C963" s="2"/>
-      <c r="D963" s="2"/>
-      <c r="E963" s="2"/>
-      <c r="F963" s="2"/>
-      <c r="G963" s="2"/>
-      <c r="H963" s="2"/>
-      <c r="I963" s="2"/>
-      <c r="J963" s="2"/>
-      <c r="K963" s="2"/>
-      <c r="L963" s="2"/>
-      <c r="M963" s="2"/>
-      <c r="N963" s="2"/>
-      <c r="O963" s="2"/>
-      <c r="P963" s="2"/>
-      <c r="Q963" s="2"/>
-      <c r="R963" s="2"/>
-      <c r="S963" s="2"/>
-      <c r="T963" s="2"/>
-      <c r="U963" s="2"/>
-      <c r="V963" s="2"/>
-      <c r="W963" s="2"/>
-      <c r="X963" s="2"/>
-      <c r="Y963" s="2"/>
-      <c r="Z963" s="2"/>
-    </row>
-    <row r="964">
-      <c r="A964" s="2"/>
-      <c r="B964" s="2"/>
-      <c r="C964" s="2"/>
-      <c r="D964" s="2"/>
-      <c r="E964" s="2"/>
-      <c r="F964" s="2"/>
-      <c r="G964" s="2"/>
-      <c r="H964" s="2"/>
-      <c r="I964" s="2"/>
-      <c r="J964" s="2"/>
-      <c r="K964" s="2"/>
-      <c r="L964" s="2"/>
-      <c r="M964" s="2"/>
-      <c r="N964" s="2"/>
-      <c r="O964" s="2"/>
-      <c r="P964" s="2"/>
-      <c r="Q964" s="2"/>
-      <c r="R964" s="2"/>
-      <c r="S964" s="2"/>
-      <c r="T964" s="2"/>
-      <c r="U964" s="2"/>
-      <c r="V964" s="2"/>
-      <c r="W964" s="2"/>
-      <c r="X964" s="2"/>
-      <c r="Y964" s="2"/>
-      <c r="Z964" s="2"/>
-    </row>
-    <row r="965">
-      <c r="A965" s="2"/>
-      <c r="B965" s="2"/>
-      <c r="C965" s="2"/>
-      <c r="D965" s="2"/>
-      <c r="E965" s="2"/>
-      <c r="F965" s="2"/>
-      <c r="G965" s="2"/>
-      <c r="H965" s="2"/>
-      <c r="I965" s="2"/>
-      <c r="J965" s="2"/>
-      <c r="K965" s="2"/>
-      <c r="L965" s="2"/>
-      <c r="M965" s="2"/>
-      <c r="N965" s="2"/>
-      <c r="O965" s="2"/>
-      <c r="P965" s="2"/>
-      <c r="Q965" s="2"/>
-      <c r="R965" s="2"/>
-      <c r="S965" s="2"/>
-      <c r="T965" s="2"/>
-      <c r="U965" s="2"/>
-      <c r="V965" s="2"/>
-      <c r="W965" s="2"/>
-      <c r="X965" s="2"/>
-      <c r="Y965" s="2"/>
-      <c r="Z965" s="2"/>
-    </row>
-    <row r="966">
-      <c r="A966" s="2"/>
-      <c r="B966" s="2"/>
-      <c r="C966" s="2"/>
-      <c r="D966" s="2"/>
-      <c r="E966" s="2"/>
-      <c r="F966" s="2"/>
-      <c r="G966" s="2"/>
-      <c r="H966" s="2"/>
-      <c r="I966" s="2"/>
-      <c r="J966" s="2"/>
-      <c r="K966" s="2"/>
-      <c r="L966" s="2"/>
-      <c r="M966" s="2"/>
-      <c r="N966" s="2"/>
-      <c r="O966" s="2"/>
-      <c r="P966" s="2"/>
-      <c r="Q966" s="2"/>
-      <c r="R966" s="2"/>
-      <c r="S966" s="2"/>
-      <c r="T966" s="2"/>
-      <c r="U966" s="2"/>
-      <c r="V966" s="2"/>
-      <c r="W966" s="2"/>
-      <c r="X966" s="2"/>
-      <c r="Y966" s="2"/>
-      <c r="Z966" s="2"/>
-    </row>
-    <row r="967">
-      <c r="A967" s="2"/>
-      <c r="B967" s="2"/>
-      <c r="C967" s="2"/>
-      <c r="D967" s="2"/>
-      <c r="E967" s="2"/>
-      <c r="F967" s="2"/>
-      <c r="G967" s="2"/>
-      <c r="H967" s="2"/>
-      <c r="I967" s="2"/>
-      <c r="J967" s="2"/>
-      <c r="K967" s="2"/>
-      <c r="L967" s="2"/>
-      <c r="M967" s="2"/>
-      <c r="N967" s="2"/>
-      <c r="O967" s="2"/>
-      <c r="P967" s="2"/>
-      <c r="Q967" s="2"/>
-      <c r="R967" s="2"/>
-      <c r="S967" s="2"/>
-      <c r="T967" s="2"/>
-      <c r="U967" s="2"/>
-      <c r="V967" s="2"/>
-      <c r="W967" s="2"/>
-      <c r="X967" s="2"/>
-      <c r="Y967" s="2"/>
-      <c r="Z967" s="2"/>
-    </row>
-    <row r="968">
-      <c r="A968" s="2"/>
-      <c r="B968" s="2"/>
-      <c r="C968" s="2"/>
-      <c r="D968" s="2"/>
-      <c r="E968" s="2"/>
-      <c r="F968" s="2"/>
-      <c r="G968" s="2"/>
-      <c r="H968" s="2"/>
-      <c r="I968" s="2"/>
-      <c r="J968" s="2"/>
-      <c r="K968" s="2"/>
-      <c r="L968" s="2"/>
-      <c r="M968" s="2"/>
-      <c r="N968" s="2"/>
-      <c r="O968" s="2"/>
-      <c r="P968" s="2"/>
-      <c r="Q968" s="2"/>
-      <c r="R968" s="2"/>
-      <c r="S968" s="2"/>
-      <c r="T968" s="2"/>
-      <c r="U968" s="2"/>
-      <c r="V968" s="2"/>
-      <c r="W968" s="2"/>
-      <c r="X968" s="2"/>
-      <c r="Y968" s="2"/>
-      <c r="Z968" s="2"/>
-    </row>
-    <row r="969">
-      <c r="A969" s="2"/>
-      <c r="B969" s="2"/>
-      <c r="C969" s="2"/>
-      <c r="D969" s="2"/>
-      <c r="E969" s="2"/>
-      <c r="F969" s="2"/>
-      <c r="G969" s="2"/>
-      <c r="H969" s="2"/>
-      <c r="I969" s="2"/>
-      <c r="J969" s="2"/>
-      <c r="K969" s="2"/>
-      <c r="L969" s="2"/>
-      <c r="M969" s="2"/>
-      <c r="N969" s="2"/>
-      <c r="O969" s="2"/>
-      <c r="P969" s="2"/>
-      <c r="Q969" s="2"/>
-      <c r="R969" s="2"/>
-      <c r="S969" s="2"/>
-      <c r="T969" s="2"/>
-      <c r="U969" s="2"/>
-      <c r="V969" s="2"/>
-      <c r="W969" s="2"/>
-      <c r="X969" s="2"/>
-      <c r="Y969" s="2"/>
-      <c r="Z969" s="2"/>
-    </row>
-    <row r="970">
-      <c r="A970" s="2"/>
-      <c r="B970" s="2"/>
-      <c r="C970" s="2"/>
-      <c r="D970" s="2"/>
-      <c r="E970" s="2"/>
-      <c r="F970" s="2"/>
-      <c r="G970" s="2"/>
-      <c r="H970" s="2"/>
-      <c r="I970" s="2"/>
-      <c r="J970" s="2"/>
-      <c r="K970" s="2"/>
-      <c r="L970" s="2"/>
-      <c r="M970" s="2"/>
-      <c r="N970" s="2"/>
-      <c r="O970" s="2"/>
-      <c r="P970" s="2"/>
-      <c r="Q970" s="2"/>
-      <c r="R970" s="2"/>
-      <c r="S970" s="2"/>
-      <c r="T970" s="2"/>
-      <c r="U970" s="2"/>
-      <c r="V970" s="2"/>
-      <c r="W970" s="2"/>
-      <c r="X970" s="2"/>
-      <c r="Y970" s="2"/>
-      <c r="Z970" s="2"/>
-    </row>
-    <row r="971">
-      <c r="A971" s="2"/>
-      <c r="B971" s="2"/>
-      <c r="C971" s="2"/>
-      <c r="D971" s="2"/>
-      <c r="E971" s="2"/>
-      <c r="F971" s="2"/>
-      <c r="G971" s="2"/>
-      <c r="H971" s="2"/>
-      <c r="I971" s="2"/>
-      <c r="J971" s="2"/>
-      <c r="K971" s="2"/>
-      <c r="L971" s="2"/>
-      <c r="M971" s="2"/>
-      <c r="N971" s="2"/>
-      <c r="O971" s="2"/>
-      <c r="P971" s="2"/>
-      <c r="Q971" s="2"/>
-      <c r="R971" s="2"/>
-      <c r="S971" s="2"/>
-      <c r="T971" s="2"/>
-      <c r="U971" s="2"/>
-      <c r="V971" s="2"/>
-      <c r="W971" s="2"/>
-      <c r="X971" s="2"/>
-      <c r="Y971" s="2"/>
-      <c r="Z971" s="2"/>
-    </row>
-    <row r="972">
-      <c r="A972" s="2"/>
-      <c r="B972" s="2"/>
-      <c r="C972" s="2"/>
-      <c r="D972" s="2"/>
-      <c r="E972" s="2"/>
-      <c r="F972" s="2"/>
-      <c r="G972" s="2"/>
-      <c r="H972" s="2"/>
-      <c r="I972" s="2"/>
-      <c r="J972" s="2"/>
-      <c r="K972" s="2"/>
-      <c r="L972" s="2"/>
-      <c r="M972" s="2"/>
-      <c r="N972" s="2"/>
-      <c r="O972" s="2"/>
-      <c r="P972" s="2"/>
-      <c r="Q972" s="2"/>
-      <c r="R972" s="2"/>
-      <c r="S972" s="2"/>
-      <c r="T972" s="2"/>
-      <c r="U972" s="2"/>
-      <c r="V972" s="2"/>
-      <c r="W972" s="2"/>
-      <c r="X972" s="2"/>
-      <c r="Y972" s="2"/>
-      <c r="Z972" s="2"/>
-    </row>
-    <row r="973">
-      <c r="A973" s="2"/>
-      <c r="B973" s="2"/>
-      <c r="C973" s="2"/>
-      <c r="D973" s="2"/>
-      <c r="E973" s="2"/>
-      <c r="F973" s="2"/>
-      <c r="G973" s="2"/>
-      <c r="H973" s="2"/>
-      <c r="I973" s="2"/>
-      <c r="J973" s="2"/>
-      <c r="K973" s="2"/>
-      <c r="L973" s="2"/>
-      <c r="M973" s="2"/>
-      <c r="N973" s="2"/>
-      <c r="O973" s="2"/>
-      <c r="P973" s="2"/>
-      <c r="Q973" s="2"/>
-      <c r="R973" s="2"/>
-      <c r="S973" s="2"/>
-      <c r="T973" s="2"/>
-      <c r="U973" s="2"/>
-      <c r="V973" s="2"/>
-      <c r="W973" s="2"/>
-      <c r="X973" s="2"/>
-      <c r="Y973" s="2"/>
-      <c r="Z973" s="2"/>
-    </row>
-    <row r="974">
-      <c r="A974" s="2"/>
-      <c r="B974" s="2"/>
-      <c r="C974" s="2"/>
-      <c r="D974" s="2"/>
-      <c r="E974" s="2"/>
-      <c r="F974" s="2"/>
-      <c r="G974" s="2"/>
-      <c r="H974" s="2"/>
-      <c r="I974" s="2"/>
-      <c r="J974" s="2"/>
-      <c r="K974" s="2"/>
-      <c r="L974" s="2"/>
-      <c r="M974" s="2"/>
-      <c r="N974" s="2"/>
-      <c r="O974" s="2"/>
-      <c r="P974" s="2"/>
-      <c r="Q974" s="2"/>
-      <c r="R974" s="2"/>
-      <c r="S974" s="2"/>
-      <c r="T974" s="2"/>
-      <c r="U974" s="2"/>
-      <c r="V974" s="2"/>
-      <c r="W974" s="2"/>
-      <c r="X974" s="2"/>
-      <c r="Y974" s="2"/>
-      <c r="Z974" s="2"/>
-    </row>
-    <row r="975">
-      <c r="A975" s="2"/>
-      <c r="B975" s="2"/>
-      <c r="C975" s="2"/>
-      <c r="D975" s="2"/>
-      <c r="E975" s="2"/>
-      <c r="F975" s="2"/>
-      <c r="G975" s="2"/>
-      <c r="H975" s="2"/>
-      <c r="I975" s="2"/>
-      <c r="J975" s="2"/>
-      <c r="K975" s="2"/>
-      <c r="L975" s="2"/>
-      <c r="M975" s="2"/>
-      <c r="N975" s="2"/>
-      <c r="O975" s="2"/>
-      <c r="P975" s="2"/>
-      <c r="Q975" s="2"/>
-      <c r="R975" s="2"/>
-      <c r="S975" s="2"/>
-      <c r="T975" s="2"/>
-      <c r="U975" s="2"/>
-      <c r="V975" s="2"/>
-      <c r="W975" s="2"/>
-      <c r="X975" s="2"/>
-      <c r="Y975" s="2"/>
-      <c r="Z975" s="2"/>
-    </row>
-    <row r="976">
-      <c r="A976" s="2"/>
-      <c r="B976" s="2"/>
-      <c r="C976" s="2"/>
-      <c r="D976" s="2"/>
-      <c r="E976" s="2"/>
-      <c r="F976" s="2"/>
-      <c r="G976" s="2"/>
-      <c r="H976" s="2"/>
-      <c r="I976" s="2"/>
-      <c r="J976" s="2"/>
-      <c r="K976" s="2"/>
-      <c r="L976" s="2"/>
-      <c r="M976" s="2"/>
-      <c r="N976" s="2"/>
-      <c r="O976" s="2"/>
-      <c r="P976" s="2"/>
-      <c r="Q976" s="2"/>
-      <c r="R976" s="2"/>
-      <c r="S976" s="2"/>
-      <c r="T976" s="2"/>
-      <c r="U976" s="2"/>
-      <c r="V976" s="2"/>
-      <c r="W976" s="2"/>
-      <c r="X976" s="2"/>
-      <c r="Y976" s="2"/>
-      <c r="Z976" s="2"/>
-    </row>
-    <row r="977">
-      <c r="A977" s="2"/>
-      <c r="B977" s="2"/>
-      <c r="C977" s="2"/>
-      <c r="D977" s="2"/>
-      <c r="E977" s="2"/>
-      <c r="F977" s="2"/>
-      <c r="G977" s="2"/>
-      <c r="H977" s="2"/>
-      <c r="I977" s="2"/>
-      <c r="J977" s="2"/>
-      <c r="K977" s="2"/>
-      <c r="L977" s="2"/>
-      <c r="M977" s="2"/>
-      <c r="N977" s="2"/>
-      <c r="O977" s="2"/>
-      <c r="P977" s="2"/>
-      <c r="Q977" s="2"/>
-      <c r="R977" s="2"/>
-      <c r="S977" s="2"/>
-      <c r="T977" s="2"/>
-      <c r="U977" s="2"/>
-      <c r="V977" s="2"/>
-      <c r="W977" s="2"/>
-      <c r="X977" s="2"/>
-      <c r="Y977" s="2"/>
-      <c r="Z977" s="2"/>
-    </row>
-    <row r="978">
-      <c r="A978" s="2"/>
-      <c r="B978" s="2"/>
-      <c r="C978" s="2"/>
-      <c r="D978" s="2"/>
-      <c r="E978" s="2"/>
-      <c r="F978" s="2"/>
-      <c r="G978" s="2"/>
-      <c r="H978" s="2"/>
-      <c r="I978" s="2"/>
-      <c r="J978" s="2"/>
-      <c r="K978" s="2"/>
-      <c r="L978" s="2"/>
-      <c r="M978" s="2"/>
-      <c r="N978" s="2"/>
-      <c r="O978" s="2"/>
-      <c r="P978" s="2"/>
-      <c r="Q978" s="2"/>
-      <c r="R978" s="2"/>
-      <c r="S978" s="2"/>
-      <c r="T978" s="2"/>
-      <c r="U978" s="2"/>
-      <c r="V978" s="2"/>
-      <c r="W978" s="2"/>
-      <c r="X978" s="2"/>
-      <c r="Y978" s="2"/>
-      <c r="Z978" s="2"/>
-    </row>
-    <row r="979">
-      <c r="A979" s="2"/>
-      <c r="B979" s="2"/>
-      <c r="C979" s="2"/>
-      <c r="D979" s="2"/>
-      <c r="E979" s="2"/>
-      <c r="F979" s="2"/>
-      <c r="G979" s="2"/>
-      <c r="H979" s="2"/>
-      <c r="I979" s="2"/>
-      <c r="J979" s="2"/>
-      <c r="K979" s="2"/>
-      <c r="L979" s="2"/>
-      <c r="M979" s="2"/>
-      <c r="N979" s="2"/>
-      <c r="O979" s="2"/>
-      <c r="P979" s="2"/>
-      <c r="Q979" s="2"/>
-      <c r="R979" s="2"/>
-      <c r="S979" s="2"/>
-      <c r="T979" s="2"/>
-      <c r="U979" s="2"/>
-      <c r="V979" s="2"/>
-      <c r="W979" s="2"/>
-      <c r="X979" s="2"/>
-      <c r="Y979" s="2"/>
-      <c r="Z979" s="2"/>
-    </row>
-    <row r="980">
-      <c r="A980" s="2"/>
-      <c r="B980" s="2"/>
-      <c r="C980" s="2"/>
-      <c r="D980" s="2"/>
-      <c r="E980" s="2"/>
-      <c r="F980" s="2"/>
-      <c r="G980" s="2"/>
-      <c r="H980" s="2"/>
-      <c r="I980" s="2"/>
-      <c r="J980" s="2"/>
-      <c r="K980" s="2"/>
-      <c r="L980" s="2"/>
-      <c r="M980" s="2"/>
-      <c r="N980" s="2"/>
-      <c r="O980" s="2"/>
-      <c r="P980" s="2"/>
-      <c r="Q980" s="2"/>
-      <c r="R980" s="2"/>
-      <c r="S980" s="2"/>
-      <c r="T980" s="2"/>
-      <c r="U980" s="2"/>
-      <c r="V980" s="2"/>
-      <c r="W980" s="2"/>
-      <c r="X980" s="2"/>
-      <c r="Y980" s="2"/>
-      <c r="Z980" s="2"/>
-    </row>
-    <row r="981">
-      <c r="A981" s="2"/>
-      <c r="B981" s="2"/>
-      <c r="C981" s="2"/>
-      <c r="D981" s="2"/>
-      <c r="E981" s="2"/>
-      <c r="F981" s="2"/>
-      <c r="G981" s="2"/>
-      <c r="H981" s="2"/>
-      <c r="I981" s="2"/>
-      <c r="J981" s="2"/>
-      <c r="K981" s="2"/>
-      <c r="L981" s="2"/>
-      <c r="M981" s="2"/>
-      <c r="N981" s="2"/>
-      <c r="O981" s="2"/>
-      <c r="P981" s="2"/>
-      <c r="Q981" s="2"/>
-      <c r="R981" s="2"/>
-      <c r="S981" s="2"/>
-      <c r="T981" s="2"/>
-      <c r="U981" s="2"/>
-      <c r="V981" s="2"/>
-      <c r="W981" s="2"/>
-      <c r="X981" s="2"/>
-      <c r="Y981" s="2"/>
-      <c r="Z981" s="2"/>
-    </row>
-    <row r="982">
-      <c r="A982" s="2"/>
-      <c r="B982" s="2"/>
-      <c r="C982" s="2"/>
-      <c r="D982" s="2"/>
-      <c r="E982" s="2"/>
-      <c r="F982" s="2"/>
-      <c r="G982" s="2"/>
-      <c r="H982" s="2"/>
-      <c r="I982" s="2"/>
-      <c r="J982" s="2"/>
-      <c r="K982" s="2"/>
-      <c r="L982" s="2"/>
-      <c r="M982" s="2"/>
-      <c r="N982" s="2"/>
-      <c r="O982" s="2"/>
-      <c r="P982" s="2"/>
-      <c r="Q982" s="2"/>
-      <c r="R982" s="2"/>
-      <c r="S982" s="2"/>
-      <c r="T982" s="2"/>
-      <c r="U982" s="2"/>
-      <c r="V982" s="2"/>
-      <c r="W982" s="2"/>
-      <c r="X982" s="2"/>
-      <c r="Y982" s="2"/>
-      <c r="Z982" s="2"/>
-    </row>
-    <row r="983">
-      <c r="A983" s="2"/>
-      <c r="B983" s="2"/>
-      <c r="C983" s="2"/>
-      <c r="D983" s="2"/>
-      <c r="E983" s="2"/>
-      <c r="F983" s="2"/>
-      <c r="G983" s="2"/>
-      <c r="H983" s="2"/>
-      <c r="I983" s="2"/>
-      <c r="J983" s="2"/>
-      <c r="K983" s="2"/>
-      <c r="L983" s="2"/>
-      <c r="M983" s="2"/>
-      <c r="N983" s="2"/>
-      <c r="O983" s="2"/>
-      <c r="P983" s="2"/>
-      <c r="Q983" s="2"/>
-      <c r="R983" s="2"/>
-      <c r="S983" s="2"/>
-      <c r="T983" s="2"/>
-      <c r="U983" s="2"/>
-      <c r="V983" s="2"/>
-      <c r="W983" s="2"/>
-      <c r="X983" s="2"/>
-      <c r="Y983" s="2"/>
-      <c r="Z983" s="2"/>
-    </row>
   </sheetData>
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
